--- a/data/trans_orig/P36B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6908</v>
+        <v>6889</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009323819371777044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002977865583223318</v>
+        <v>0.003030304782756083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02530416163600471</v>
+        <v>0.02523253826064005</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8453</v>
+        <v>9430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009965554079087195</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03240874728376148</v>
+        <v>0.03615377723812325</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12366</v>
+        <v>12286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009637370881424506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003221094003772169</v>
+        <v>0.003233070892032552</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0231646131949426</v>
+        <v>0.02301435180193036</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>44500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33211</v>
+        <v>33127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58618</v>
+        <v>58289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1629963948777975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1216487375204287</v>
+        <v>0.1213411545242575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2147107937476175</v>
+        <v>0.2135066950451242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -835,19 +835,19 @@
         <v>29456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19581</v>
+        <v>19807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41187</v>
+        <v>41232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.11292924481373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07506909298402084</v>
+        <v>0.07593604751555862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1579043862031808</v>
+        <v>0.1580735383091386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -856,19 +856,19 @@
         <v>73956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57889</v>
+        <v>59089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91363</v>
+        <v>92394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.138533590688609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1084370949520691</v>
+        <v>0.1106844306996279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1711414098881038</v>
+        <v>0.1730713561080453</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>159142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142099</v>
+        <v>140065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175414</v>
+        <v>174128</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5829173284838598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5204886135065729</v>
+        <v>0.5130383982655793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6425190578219218</v>
+        <v>0.6378081067302201</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>153</v>
@@ -906,19 +906,19 @@
         <v>161780</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145240</v>
+        <v>143921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177973</v>
+        <v>176325</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6202307183933985</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5568192736462596</v>
+        <v>0.5517629049832343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6823139512346574</v>
+        <v>0.6759957278915536</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>312</v>
@@ -927,19 +927,19 @@
         <v>320922</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>295115</v>
+        <v>296961</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>343169</v>
+        <v>343325</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6011486468198116</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5528078837232522</v>
+        <v>0.556265260915904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6428216114056631</v>
+        <v>0.6431143174005864</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>64154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50693</v>
+        <v>51194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78723</v>
+        <v>78942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2349877933721539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1856814718362702</v>
+        <v>0.1875176822699999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2883509347414102</v>
+        <v>0.2891541702338445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -977,19 +977,19 @@
         <v>65039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51936</v>
+        <v>51838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81328</v>
+        <v>79715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2493469794661905</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.19911081696504</v>
+        <v>0.1987372038070644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.311795199904401</v>
+        <v>0.3056100801124395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -998,19 +998,19 @@
         <v>129193</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107484</v>
+        <v>111878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150451</v>
+        <v>152799</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2420036901684574</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2013391436565832</v>
+        <v>0.2095692226591347</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2818229229926627</v>
+        <v>0.2862216093041206</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>2669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6849</v>
+        <v>7041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009774663894411881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003056396013457899</v>
+        <v>0.003041228938238883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02508524914267236</v>
+        <v>0.02579121436063612</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6938</v>
+        <v>6945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007527503247593762</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02659985488009021</v>
+        <v>0.02662386610760168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1069,19 +1069,19 @@
         <v>4632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1751</v>
+        <v>1827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10428</v>
+        <v>10105</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008676701441697514</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003280199982674083</v>
+        <v>0.003421776745420781</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01953313663842943</v>
+        <v>0.01892797711418847</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>6982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3051</v>
+        <v>2789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14406</v>
+        <v>15930</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01416059913055891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006188375396386462</v>
+        <v>0.005655424353992989</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02921628585109002</v>
+        <v>0.03230677538416665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1194,19 +1194,19 @@
         <v>4806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1849</v>
+        <v>1950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10392</v>
+        <v>10638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009537086833015062</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003669309476218393</v>
+        <v>0.003869367489058932</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0206219358195646</v>
+        <v>0.02110844527395104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1215,19 +1215,19 @@
         <v>11788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6557</v>
+        <v>6018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21775</v>
+        <v>21756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01182363003072001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006576940322714421</v>
+        <v>0.006036293211636537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02183951658754198</v>
+        <v>0.02182121462087808</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>59475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45108</v>
+        <v>44490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74829</v>
+        <v>74942</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1206213051344259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09148379696941829</v>
+        <v>0.09023040708737791</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1517602254662218</v>
+        <v>0.1519881700829561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -1265,19 +1265,19 @@
         <v>53692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41379</v>
+        <v>40275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69356</v>
+        <v>68622</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.106542632653228</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08210904635451861</v>
+        <v>0.07991960598347657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.137624948481624</v>
+        <v>0.1361676834213778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>108</v>
@@ -1286,19 +1286,19 @@
         <v>113167</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95122</v>
+        <v>95112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136441</v>
+        <v>134479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.113505195035013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09540623450592081</v>
+        <v>0.09539616570015766</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1368480422046733</v>
+        <v>0.1348801495795293</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>310141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>286321</v>
+        <v>289810</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>331537</v>
+        <v>335601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6289933484797821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5806834958491975</v>
+        <v>0.5877597134202904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6723874079843285</v>
+        <v>0.6806289885565571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>338</v>
@@ -1336,19 +1336,19 @@
         <v>340684</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320108</v>
+        <v>320686</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>363246</v>
+        <v>360634</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6760277763384585</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.635199730207563</v>
+        <v>0.6363455716888496</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7208000581754029</v>
+        <v>0.7156156593191672</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>635</v>
@@ -1357,19 +1357,19 @@
         <v>650824</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>620644</v>
+        <v>620253</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>680674</v>
+        <v>680789</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.652767050691566</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6224966885478653</v>
+        <v>0.6221042346028233</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6827059911878288</v>
+        <v>0.6828213650830544</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>113689</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94096</v>
+        <v>95254</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134521</v>
+        <v>133277</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2305707376427432</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1908344161446767</v>
+        <v>0.1931830315491628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2728210301175271</v>
+        <v>0.2702976174838265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1407,19 +1407,19 @@
         <v>102804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84706</v>
+        <v>86348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120956</v>
+        <v>121821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2039963485533956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1680844630568283</v>
+        <v>0.1713424159846333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2400155333728106</v>
+        <v>0.2417322847556461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1428,19 +1428,19 @@
         <v>216492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190027</v>
+        <v>192099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242936</v>
+        <v>244459</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2171386275601351</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1905943738216016</v>
+        <v>0.1926722089768578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2436614570710893</v>
+        <v>0.2451883361213081</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>2788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7400</v>
+        <v>7739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005654009612489857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001683881724843193</v>
+        <v>0.001678137068392133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01500887145844922</v>
+        <v>0.01569498425944049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6897</v>
+        <v>6864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003896155621902817</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0136861986390209</v>
+        <v>0.0136214090388268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1499,19 +1499,19 @@
         <v>4751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1800</v>
+        <v>1823</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10018</v>
+        <v>10258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00476549668256584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001805508565430517</v>
+        <v>0.001828476669429026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01004830633590656</v>
+        <v>0.010288389514147</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6868</v>
+        <v>5882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005776072349390113</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02153947485244748</v>
+        <v>0.01844753916358457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5025</v>
+        <v>5084</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003003678140551251</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01498299346951902</v>
+        <v>0.0151585160763256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1645,19 +1645,19 @@
         <v>2849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7669</v>
+        <v>8028</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004354776140961309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001376273691124728</v>
+        <v>0.001384509392646718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0117211742246143</v>
+        <v>0.01227032105657751</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>39167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28501</v>
+        <v>28082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52436</v>
+        <v>52668</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1228391582902849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08938786580696739</v>
+        <v>0.08807327000181568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1644546698310143</v>
+        <v>0.1651834221173184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>10893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5829</v>
+        <v>5822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18453</v>
+        <v>18292</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03247514486685858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01737914806649232</v>
+        <v>0.01735645867552472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05501467411649871</v>
+        <v>0.05453621671623437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1716,19 +1716,19 @@
         <v>50059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37846</v>
+        <v>37462</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65213</v>
+        <v>64371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.076513123829653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05784578888048555</v>
+        <v>0.05725897427178384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09967468743053176</v>
+        <v>0.09838752334198497</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>227235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>211141</v>
+        <v>209718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>242665</v>
+        <v>243361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7126788044833756</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6622034242515888</v>
+        <v>0.6577421709063057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7610736211167447</v>
+        <v>0.7632569271726211</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>251</v>
@@ -1766,19 +1766,19 @@
         <v>253896</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>237960</v>
+        <v>237119</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268909</v>
+        <v>268262</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7569682350097184</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7094546129305958</v>
+        <v>0.7069478419350612</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8017269297527355</v>
+        <v>0.7997997998041158</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>471</v>
@@ -1787,19 +1787,19 @@
         <v>481131</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>456301</v>
+        <v>459394</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>501295</v>
+        <v>502358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7353842334154777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6974328273157837</v>
+        <v>0.7021599263462106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7662036810641767</v>
+        <v>0.7678282301630061</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>49653</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37468</v>
+        <v>38038</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63277</v>
+        <v>65153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1557284375208332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1175115877009662</v>
+        <v>0.1192987510391932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1984575570978985</v>
+        <v>0.2043400868989181</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1837,19 +1837,19 @@
         <v>68638</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54328</v>
+        <v>56377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83264</v>
+        <v>85890</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2046365517053065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1619746154285698</v>
+        <v>0.168083223404871</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2482429229549825</v>
+        <v>0.2560735345296082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -1858,19 +1858,19 @@
         <v>118291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101238</v>
+        <v>100351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141446</v>
+        <v>139107</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1808016818055659</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1547365983736529</v>
+        <v>0.1533806835354476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.216193302754785</v>
+        <v>0.2126174166946797</v>
       </c>
     </row>
     <row r="20">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4719</v>
+        <v>4802</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002977527356116165</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01479968309060562</v>
+        <v>0.01506012662078114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3975</v>
+        <v>5431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002916390277565251</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0118524824139297</v>
+        <v>0.01619330378488897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5837</v>
+        <v>6781</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002946184808342188</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008920833619652194</v>
+        <v>0.01036514828262044</v>
       </c>
     </row>
     <row r="21">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6316</v>
+        <v>6325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004989522006189135</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01760888430174156</v>
+        <v>0.01763432692073056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9262</v>
+        <v>9276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006264431055045881</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02493500060370971</v>
+        <v>0.02497111731094107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2075,19 +2075,19 @@
         <v>4117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9906</v>
+        <v>11041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005638138645635652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001994939979011535</v>
+        <v>0.0019860869749528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01356807633965397</v>
+        <v>0.01512202718445403</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>44553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33422</v>
+        <v>32631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58368</v>
+        <v>57698</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1242157030316864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09318162086381149</v>
+        <v>0.09097686666444328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1627342710317153</v>
+        <v>0.1608668078030011</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2125,19 +2125,19 @@
         <v>23546</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15698</v>
+        <v>15929</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33842</v>
+        <v>34264</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06338812362524349</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04226191360573039</v>
+        <v>0.04288345857301421</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09110708971915385</v>
+        <v>0.09224282388268711</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2146,19 +2146,19 @@
         <v>68098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53312</v>
+        <v>54073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>84418</v>
+        <v>85150</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09326935421123315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07301681849291503</v>
+        <v>0.07405936934721999</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1156212955567495</v>
+        <v>0.1166229031880007</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>224164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>204257</v>
+        <v>203372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>242121</v>
+        <v>240656</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6249848507123924</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5694832104294933</v>
+        <v>0.5670142912491538</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6750500237456858</v>
+        <v>0.6709671336371258</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>247</v>
@@ -2196,19 +2196,19 @@
         <v>240423</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>222166</v>
+        <v>221426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>256597</v>
+        <v>256705</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6472449671260585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5980956036047671</v>
+        <v>0.596103575402593</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6907870849303874</v>
+        <v>0.6910771626740703</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>473</v>
@@ -2217,19 +2217,19 @@
         <v>464587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>439674</v>
+        <v>436936</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>491993</v>
+        <v>488793</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6363098012371907</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6021881544955584</v>
+        <v>0.5984378938215105</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6738462625964617</v>
+        <v>0.6694628720290872</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>86630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70552</v>
+        <v>71812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102377</v>
+        <v>104206</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2415316390030527</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.196704491108854</v>
+        <v>0.2002157891800086</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2854353951224323</v>
+        <v>0.290533385051409</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>105</v>
@@ -2267,19 +2267,19 @@
         <v>100477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85033</v>
+        <v>84391</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119777</v>
+        <v>117640</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2704960005647224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2289180111024505</v>
+        <v>0.227189613231382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3224529431885751</v>
+        <v>0.3167001418055825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -2288,19 +2288,19 @@
         <v>187108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165762</v>
+        <v>165337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>211778</v>
+        <v>212758</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2562674092736386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2270313022067991</v>
+        <v>0.2264490006336274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.290055992025612</v>
+        <v>0.2913992128845653</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7266</v>
+        <v>8949</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004278285246679242</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02025720170596828</v>
+        <v>0.02495144152770653</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2338,19 +2338,19 @@
         <v>4683</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1845</v>
+        <v>1823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11209</v>
+        <v>10301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01260647762892969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004966651163520225</v>
+        <v>0.004907211464449552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03017548587920786</v>
+        <v>0.02773145325448641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2359,19 +2359,19 @@
         <v>6217</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12912</v>
+        <v>12420</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008515296632301887</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003301558983618731</v>
+        <v>0.003306827536091436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01768415587758204</v>
+        <v>0.01701007909668787</v>
       </c>
     </row>
     <row r="27">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5440</v>
+        <v>4598</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004761749625467051</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02687505344192859</v>
+        <v>0.02271492904922288</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2484,19 +2484,19 @@
         <v>6206</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2333</v>
+        <v>2377</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14935</v>
+        <v>14380</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02988370128734287</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01123398958899993</v>
+        <v>0.01144755463632466</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07191752917180444</v>
+        <v>0.06924370614571149</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2505,19 +2505,19 @@
         <v>7170</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2826</v>
+        <v>3122</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15890</v>
+        <v>15381</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01748340292412823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006890586892700929</v>
+        <v>0.007611864181394417</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03874834728748528</v>
+        <v>0.03750735868390349</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>25920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17582</v>
+        <v>17191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37714</v>
+        <v>37478</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1280479311000185</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08685956642942128</v>
+        <v>0.08492640829319992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.18631196128878</v>
+        <v>0.1851456150605382</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -2555,19 +2555,19 @@
         <v>16479</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9437</v>
+        <v>9629</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26236</v>
+        <v>26270</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0793514864986075</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04544368572197606</v>
+        <v>0.04636712238629004</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1263357556675856</v>
+        <v>0.1265016196545984</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -2576,19 +2576,19 @@
         <v>42398</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31449</v>
+        <v>30428</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56659</v>
+        <v>55885</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1033882512536974</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07668745391926288</v>
+        <v>0.07419808238573503</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1381628086221541</v>
+        <v>0.1362742307342674</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>118099</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>103596</v>
+        <v>103712</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>131786</v>
+        <v>133163</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5834310729248906</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5117812234276363</v>
+        <v>0.5123537512212563</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6510436626204819</v>
+        <v>0.6578482350175603</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>126</v>
@@ -2626,19 +2626,19 @@
         <v>130619</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114765</v>
+        <v>115751</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>143884</v>
+        <v>143045</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6289818734700822</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.552635289755144</v>
+        <v>0.5573844021148537</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.692856468952635</v>
+        <v>0.6888136577374179</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>248</v>
@@ -2647,19 +2647,19 @@
         <v>248719</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>227608</v>
+        <v>230333</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>268869</v>
+        <v>269557</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6064978115211517</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5550205156043031</v>
+        <v>0.5616635529382358</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6556333458504703</v>
+        <v>0.6573122826896846</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>54762</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>42788</v>
+        <v>43654</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67723</v>
+        <v>67982</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2705345650924237</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2113777168049324</v>
+        <v>0.2156574099217762</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3345648485949128</v>
+        <v>0.3358446705758683</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>52</v>
@@ -2697,19 +2697,19 @@
         <v>54364</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41398</v>
+        <v>41906</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68812</v>
+        <v>67750</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2617829387439674</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1993459215375504</v>
+        <v>0.2017944075122643</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3313544519314831</v>
+        <v>0.326243796251966</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>108</v>
@@ -2718,19 +2718,19 @@
         <v>109126</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>92267</v>
+        <v>92282</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>128182</v>
+        <v>127778</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2661027773992148</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2249932717908343</v>
+        <v>0.2250280896018444</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3125705702948501</v>
+        <v>0.3115844462554065</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>2677</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7805</v>
+        <v>7340</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01322468125720005</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00406722962882359</v>
+        <v>0.003986133086920043</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03855693620998688</v>
+        <v>0.03626241116257371</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>2677</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8077</v>
+        <v>7932</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006527756901807846</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001984679134057022</v>
+        <v>0.001996706317647182</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01969498354598903</v>
+        <v>0.0193429322481876</v>
       </c>
     </row>
     <row r="33">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10535</v>
+        <v>9291</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009982620568712734</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03890114433877088</v>
+        <v>0.03430916648117838</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2906,19 +2906,19 @@
         <v>6331</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2265</v>
+        <v>2236</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13219</v>
+        <v>13101</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02276238551678037</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008144864075698449</v>
+        <v>0.008039576885856801</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04752500730799383</v>
+        <v>0.04710023141765468</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -2927,19 +2927,19 @@
         <v>9035</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4223</v>
+        <v>4131</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16694</v>
+        <v>17623</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.016457859733727</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007692530354491684</v>
+        <v>0.007524675934804922</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03041061581234133</v>
+        <v>0.0321033468884401</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>44083</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33036</v>
+        <v>32969</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57285</v>
+        <v>56038</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1627814575532704</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.121990276348923</v>
+        <v>0.1217417078892852</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2115309198806291</v>
+        <v>0.2069247892966348</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -2977,19 +2977,19 @@
         <v>20807</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13155</v>
+        <v>13685</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31325</v>
+        <v>31221</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0748073764197794</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04729603921326524</v>
+        <v>0.049202149800191</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1126198176205445</v>
+        <v>0.1122486643747351</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>64</v>
@@ -2998,19 +2998,19 @@
         <v>64890</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>50375</v>
+        <v>50046</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79561</v>
+        <v>81880</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.118206833686823</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09176602658453535</v>
+        <v>0.09116572492762626</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1449318201302719</v>
+        <v>0.1491563418741232</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>181975</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>165729</v>
+        <v>165719</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>196178</v>
+        <v>196015</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6719628940739769</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6119717803442454</v>
+        <v>0.6119353752727905</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7244083708834264</v>
+        <v>0.7238087094028319</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>186</v>
@@ -3048,19 +3048,19 @@
         <v>192112</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>177124</v>
+        <v>175337</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>206910</v>
+        <v>205487</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6906928201158021</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6368084540689782</v>
+        <v>0.6303825158194591</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7438934598794431</v>
+        <v>0.7387799613177446</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>366</v>
@@ -3069,19 +3069,19 @@
         <v>374087</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>352381</v>
+        <v>351142</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>395728</v>
+        <v>396264</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6814529552102098</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6419116670747747</v>
+        <v>0.6396554642233799</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7208757760019899</v>
+        <v>0.7218506272699412</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>42050</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30170</v>
+        <v>31081</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>54979</v>
+        <v>55237</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.15527302780404</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1114078017909645</v>
+        <v>0.1147696896211799</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2030175529754832</v>
+        <v>0.2039683651868073</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -3119,19 +3119,19 @@
         <v>56736</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>44155</v>
+        <v>43987</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>69953</v>
+        <v>69994</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2039794209533488</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1587473331268821</v>
+        <v>0.1581459306608451</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2514985782267704</v>
+        <v>0.2516450738698207</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>96</v>
@@ -3140,19 +3140,19 @@
         <v>98785</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>80508</v>
+        <v>82388</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>117903</v>
+        <v>118371</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1799515368211151</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1466573703004127</v>
+        <v>0.1500820847388109</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2147779120275256</v>
+        <v>0.2156296489214229</v>
       </c>
     </row>
     <row r="38">
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8562</v>
+        <v>7256</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.007757996994289277</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03078280050284977</v>
+        <v>0.02608649192415531</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7533</v>
+        <v>7628</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003930814548125211</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01372279223650921</v>
+        <v>0.01389571713705897</v>
       </c>
     </row>
     <row r="39">
@@ -3307,19 +3307,19 @@
         <v>7522</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2768</v>
+        <v>2638</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>16144</v>
+        <v>15047</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01222974117321303</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004501072011134097</v>
+        <v>0.004289589406038922</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02624852761027171</v>
+        <v>0.02446486920964522</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -3328,19 +3328,19 @@
         <v>9421</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4784</v>
+        <v>4620</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17609</v>
+        <v>16774</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01481182783878601</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007521505813380811</v>
+        <v>0.007263259230063729</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02768501554690031</v>
+        <v>0.02637225757760498</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -3349,19 +3349,19 @@
         <v>16943</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9929</v>
+        <v>9970</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>27100</v>
+        <v>27096</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01354248544799947</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007935937414799869</v>
+        <v>0.007968722868187851</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02166135719020775</v>
+        <v>0.02165797728987891</v>
       </c>
     </row>
     <row r="41">
@@ -3378,19 +3378,19 @@
         <v>40382</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29428</v>
+        <v>29399</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52754</v>
+        <v>52475</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06565969413746332</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04784797054650734</v>
+        <v>0.0478018163906687</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08577505069000423</v>
+        <v>0.08532179763887197</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>37</v>
@@ -3399,19 +3399,19 @@
         <v>37114</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>27065</v>
+        <v>26097</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>50798</v>
+        <v>49766</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05835040610091782</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04255094038372798</v>
+        <v>0.04102982253286509</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0798632892317393</v>
+        <v>0.0782420923914849</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>81</v>
@@ -3420,19 +3420,19 @@
         <v>77497</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>63601</v>
+        <v>62726</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>98198</v>
+        <v>96856</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06194361978927297</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.050836939330009</v>
+        <v>0.05013714524498517</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07849004826520885</v>
+        <v>0.07741808280838629</v>
       </c>
     </row>
     <row r="42">
@@ -3449,19 +3449,19 @@
         <v>336050</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>312790</v>
+        <v>311381</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>360196</v>
+        <v>361674</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.546398935922689</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5085792436197312</v>
+        <v>0.5062884438000753</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5856583253189627</v>
+        <v>0.5880613292089418</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>383</v>
@@ -3470,19 +3470,19 @@
         <v>392517</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>364416</v>
+        <v>367925</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>416243</v>
+        <v>415971</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6171105109467514</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5729303604229714</v>
+        <v>0.5784472723973764</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6544121720060381</v>
+        <v>0.6539842990393095</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>712</v>
@@ -3491,19 +3491,19 @@
         <v>728567</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>695938</v>
+        <v>694709</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>765212</v>
+        <v>763204</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5823490132425651</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5562681734681229</v>
+        <v>0.5552860863021878</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6116397887771166</v>
+        <v>0.6100350246653196</v>
       </c>
     </row>
     <row r="43">
@@ -3520,19 +3520,19 @@
         <v>217579</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>192699</v>
+        <v>194764</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>239697</v>
+        <v>242288</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3537708026495587</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3133187095888366</v>
+        <v>0.3166760831925149</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3897346442882708</v>
+        <v>0.393946797934621</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>169</v>
@@ -3541,19 +3541,19 @@
         <v>176609</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>154227</v>
+        <v>154784</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>200788</v>
+        <v>198477</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2776621703534257</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2424735251754723</v>
+        <v>0.2433500690022526</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3156763876506126</v>
+        <v>0.312043080615017</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>374</v>
@@ -3562,19 +3562,19 @@
         <v>394187</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>358173</v>
+        <v>358651</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>427173</v>
+        <v>427645</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3150768375550897</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2862906290726703</v>
+        <v>0.2866724618984235</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.341442414244346</v>
+        <v>0.3418201952340273</v>
       </c>
     </row>
     <row r="44">
@@ -3591,19 +3591,19 @@
         <v>13494</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>7215</v>
+        <v>7569</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22003</v>
+        <v>22358</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02194082611707597</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01173041531711324</v>
+        <v>0.01230724712480073</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03577526763701049</v>
+        <v>0.03635304719529329</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -3612,19 +3612,19 @@
         <v>20395</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>12823</v>
+        <v>12642</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30588</v>
+        <v>30674</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03206508476011908</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02015986579070976</v>
+        <v>0.01987633793782752</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04809033456827696</v>
+        <v>0.04822461408463881</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>34</v>
@@ -3633,19 +3633,19 @@
         <v>33889</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>23599</v>
+        <v>23749</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46318</v>
+        <v>46726</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02708804396507283</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01886281411790603</v>
+        <v>0.01898261421212471</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03702223227722025</v>
+        <v>0.03734838918333148</v>
       </c>
     </row>
     <row r="45">
@@ -3737,19 +3737,19 @@
         <v>13929</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7669</v>
+        <v>8295</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23835</v>
+        <v>22175</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01872759602146704</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01031050491416992</v>
+        <v>0.01115228313114057</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03204458680415053</v>
+        <v>0.0298129510362048</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -3758,19 +3758,19 @@
         <v>14732</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8477</v>
+        <v>7658</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24221</v>
+        <v>23140</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01882738534960381</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01083344316161834</v>
+        <v>0.009787773505719185</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03095508959064301</v>
+        <v>0.0295742534881326</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>28</v>
@@ -3779,19 +3779,19 @@
         <v>28661</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>19013</v>
+        <v>19426</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>39281</v>
+        <v>40172</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01877875439355951</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01245749706013638</v>
+        <v>0.0127278548901105</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02573712027295713</v>
+        <v>0.02632096988431088</v>
       </c>
     </row>
     <row r="47">
@@ -3808,19 +3808,19 @@
         <v>118413</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>97758</v>
+        <v>99870</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>139563</v>
+        <v>139648</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1592008376252794</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1314318723385426</v>
+        <v>0.1342713545459574</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1876358400703092</v>
+        <v>0.1877505215360331</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>106</v>
@@ -3829,19 +3829,19 @@
         <v>109662</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>90362</v>
+        <v>91239</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>130512</v>
+        <v>131944</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.140151521626823</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1154860330670664</v>
+        <v>0.1166065177375394</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1667987799205648</v>
+        <v>0.1686289670301424</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>225</v>
@@ -3850,19 +3850,19 @@
         <v>228074</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>202543</v>
+        <v>203624</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>256915</v>
+        <v>259730</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1494349436749731</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1327065181046156</v>
+        <v>0.1334147414606322</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1683316032223648</v>
+        <v>0.1701755448279528</v>
       </c>
     </row>
     <row r="48">
@@ -3879,19 +3879,19 @@
         <v>380697</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>356825</v>
+        <v>354576</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>408488</v>
+        <v>407304</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5118302943748847</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4797351362978157</v>
+        <v>0.4767124451820888</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.549194319230885</v>
+        <v>0.5476027757479075</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>380</v>
@@ -3900,19 +3900,19 @@
         <v>403698</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>372013</v>
+        <v>374029</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>430565</v>
+        <v>432167</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5159402662776272</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4754453542206155</v>
+        <v>0.478022488994886</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5502775473405555</v>
+        <v>0.5523251317495149</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>749</v>
@@ -3921,19 +3921,19 @@
         <v>784395</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>744211</v>
+        <v>749671</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>825184</v>
+        <v>825173</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5139373280208264</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.48760889460231</v>
+        <v>0.4911861850434003</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5406626848091935</v>
+        <v>0.5406550943114612</v>
       </c>
     </row>
     <row r="49">
@@ -3950,19 +3950,19 @@
         <v>207618</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>181371</v>
+        <v>180851</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>230700</v>
+        <v>233415</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2791338247372919</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2438455528432822</v>
+        <v>0.2431466261193773</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3101661014290948</v>
+        <v>0.3138156367768875</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>229</v>
@@ -3971,19 +3971,19 @@
         <v>238747</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>211733</v>
+        <v>212131</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>265071</v>
+        <v>264414</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3051270044650438</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2706017954960239</v>
+        <v>0.2711108864763999</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3387704638940194</v>
+        <v>0.3379305924788678</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>440</v>
@@ -3992,19 +3992,19 @@
         <v>446365</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>412177</v>
+        <v>406996</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>484328</v>
+        <v>480588</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2924595859705587</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2700595185213545</v>
+        <v>0.2666647309893506</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3173326419577273</v>
+        <v>0.3148821141487795</v>
       </c>
     </row>
     <row r="50">
@@ -4021,19 +4021,19 @@
         <v>23138</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>15064</v>
+        <v>15620</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>33073</v>
+        <v>33170</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03110744724107699</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02025338221812534</v>
+        <v>0.02099976205768493</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0444656634010093</v>
+        <v>0.04459601250328928</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>15</v>
@@ -4042,19 +4042,19 @@
         <v>15613</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>8969</v>
+        <v>9406</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>24730</v>
+        <v>26257</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01995382228090206</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01146268435515871</v>
+        <v>0.01202180566399971</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03160533504501081</v>
+        <v>0.03355762021957741</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>38</v>
@@ -4063,19 +4063,19 @@
         <v>38750</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>28221</v>
+        <v>27821</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>53392</v>
+        <v>53540</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0253893879400824</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01849050175280355</v>
+        <v>0.01822813183978638</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.034982437731207</v>
+        <v>0.03507935135141392</v>
       </c>
     </row>
     <row r="51">
@@ -4167,19 +4167,19 @@
         <v>38277</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>27437</v>
+        <v>27770</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>54113</v>
+        <v>53404</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.011685413146105</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.008375900668696439</v>
+        <v>0.008477773284677527</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01651978972038021</v>
+        <v>0.01630331228547549</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>45</v>
@@ -4188,19 +4188,19 @@
         <v>47430</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>34382</v>
+        <v>34206</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>63616</v>
+        <v>61879</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01404921879361999</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0101841778618978</v>
+        <v>0.01013212670872046</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0188436415041565</v>
+        <v>0.01832917649505444</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>81</v>
@@ -4209,19 +4209,19 @@
         <v>85707</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>68142</v>
+        <v>68322</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>106474</v>
+        <v>107103</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01288514093119944</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01024442590240466</v>
+        <v>0.01027144621570809</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01600719372512768</v>
+        <v>0.01610172087670169</v>
       </c>
     </row>
     <row r="53">
@@ -4238,19 +4238,19 @@
         <v>416492</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>379485</v>
+        <v>380729</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>458090</v>
+        <v>455050</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1271477262642809</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1158499833455272</v>
+        <v>0.1162296622829518</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1398468603305908</v>
+        <v>0.1389186430978059</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>295</v>
@@ -4259,19 +4259,19 @@
         <v>301649</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>268211</v>
+        <v>265722</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>334608</v>
+        <v>332344</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08935156150686087</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07944710992163612</v>
+        <v>0.07870984700184046</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0991144216446386</v>
+        <v>0.0984439272519993</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>705</v>
@@ -4280,19 +4280,19 @@
         <v>718141</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>670718</v>
+        <v>665949</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>771900</v>
+        <v>766615</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1079646309547515</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1008350952425225</v>
+        <v>0.1001181478978053</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1160467663254496</v>
+        <v>0.1152521620633856</v>
       </c>
     </row>
     <row r="54">
@@ -4309,19 +4309,19 @@
         <v>1937503</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1881240</v>
+        <v>1879900</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1992719</v>
+        <v>1989413</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.5914853177933581</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5743093669032893</v>
+        <v>0.5739001301943232</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.6083416312359781</v>
+        <v>0.607332634016902</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2064</v>
@@ -4330,19 +4330,19 @@
         <v>2115729</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2055473</v>
+        <v>2058032</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2168516</v>
+        <v>2168128</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.626701748829093</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.6088532418472118</v>
+        <v>0.6096111161725647</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.6423376593135348</v>
+        <v>0.6422227137903231</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3966</v>
@@ -4351,19 +4351,19 @@
         <v>4053232</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3967146</v>
+        <v>3972646</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4126014</v>
+        <v>4131923</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.6093590930125051</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5964169166587774</v>
+        <v>0.5972437290776423</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.6203009758103335</v>
+        <v>0.6211893323860322</v>
       </c>
     </row>
     <row r="55">
@@ -4380,19 +4380,19 @@
         <v>836135</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>789765</v>
+        <v>790597</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>886647</v>
+        <v>889599</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2552572515124371</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2411012877866377</v>
+        <v>0.2413553126452909</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2706774602481354</v>
+        <v>0.2715786964533132</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>843</v>
@@ -4401,19 +4401,19 @@
         <v>863413</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>813166</v>
+        <v>816891</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>917616</v>
+        <v>915610</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2557522824127247</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2408685999602609</v>
+        <v>0.241971748225008</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2718076497459437</v>
+        <v>0.2712134937729807</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1660</v>
@@ -4422,19 +4422,19 @@
         <v>1699549</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1628092</v>
+        <v>1630204</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1770580</v>
+        <v>1777786</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.255508499886507</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2447657420826131</v>
+        <v>0.2450832573135995</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2661873715592537</v>
+        <v>0.2672707023309215</v>
       </c>
     </row>
     <row r="56">
@@ -4451,19 +4451,19 @@
         <v>47249</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>35389</v>
+        <v>35273</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>62818</v>
+        <v>62063</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01442429128381885</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01080374652833734</v>
+        <v>0.01076811947743824</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01917731097910834</v>
+        <v>0.01894667439956564</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>47</v>
@@ -4472,19 +4472,19 @@
         <v>47754</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>36340</v>
+        <v>36010</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>63709</v>
+        <v>62307</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01414518845770146</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01076421062480087</v>
+        <v>0.01066642791183892</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01887130733673862</v>
+        <v>0.01845610430824304</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>95</v>
@@ -4493,19 +4493,19 @@
         <v>95003</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>77475</v>
+        <v>78160</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>115716</v>
+        <v>116635</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01428263521503696</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01164758622865611</v>
+        <v>0.01175045647914678</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01739664612219314</v>
+        <v>0.01753479269736205</v>
       </c>
     </row>
     <row r="57">
@@ -4841,19 +4841,19 @@
         <v>13758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7082</v>
+        <v>7111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23226</v>
+        <v>22220</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04696674021195334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02417523716491048</v>
+        <v>0.02427457018593899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07928925542677862</v>
+        <v>0.07585355454245581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4862,19 +4862,19 @@
         <v>19339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11528</v>
+        <v>11361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30390</v>
+        <v>31137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06755795503753308</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04027120676819183</v>
+        <v>0.03968701158461276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1061617741609192</v>
+        <v>0.1087708374538928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4883,19 +4883,19 @@
         <v>33097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22397</v>
+        <v>23165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46806</v>
+        <v>47640</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05714392521121769</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03866980828732654</v>
+        <v>0.03999532632716931</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08081234210603076</v>
+        <v>0.08225276432767421</v>
       </c>
     </row>
     <row r="5">
@@ -4912,19 +4912,19 @@
         <v>7059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2853</v>
+        <v>2772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15303</v>
+        <v>15482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02409752338103347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009737944753722375</v>
+        <v>0.009462481238831992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05224338830475644</v>
+        <v>0.05285162778303643</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -4933,19 +4933,19 @@
         <v>10349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5268</v>
+        <v>5792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18997</v>
+        <v>18283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03615331572504223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01840153600638536</v>
+        <v>0.0202345511234004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06636158879441541</v>
+        <v>0.06386721052943731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4954,19 +4954,19 @@
         <v>17408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10469</v>
+        <v>10651</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28069</v>
+        <v>28732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03005608532295802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01807465138399209</v>
+        <v>0.01838984149117903</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04846209413208028</v>
+        <v>0.04960734125163813</v>
       </c>
     </row>
     <row r="6">
@@ -4983,19 +4983,19 @@
         <v>147131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130575</v>
+        <v>128894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164416</v>
+        <v>164423</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5022771765155011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4457586360285737</v>
+        <v>0.4400191871293312</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5612862322149529</v>
+        <v>0.5613115734576833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -5004,19 +5004,19 @@
         <v>128975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111347</v>
+        <v>111467</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146416</v>
+        <v>147575</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.450544656137746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.388965423932476</v>
+        <v>0.3893835003345853</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5114699155956903</v>
+        <v>0.5155171148648459</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>257</v>
@@ -5025,19 +5025,19 @@
         <v>276106</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>250428</v>
+        <v>252942</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>302520</v>
+        <v>301084</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4767084359228583</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4323744464299056</v>
+        <v>0.4367142808211945</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5223127894874734</v>
+        <v>0.5198335287371109</v>
       </c>
     </row>
     <row r="7">
@@ -5054,19 +5054,19 @@
         <v>113145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97288</v>
+        <v>97272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130082</v>
+        <v>131372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3862571447655432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3321247052191452</v>
+        <v>0.3320688891774974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4440773586380086</v>
+        <v>0.4484818824374678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -5075,19 +5075,19 @@
         <v>102696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86791</v>
+        <v>86182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120399</v>
+        <v>120549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3587461709551657</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3031824588441036</v>
+        <v>0.301055503151531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4205845489695072</v>
+        <v>0.421111488425312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -5096,19 +5096,19 @@
         <v>215842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>192219</v>
+        <v>192934</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242335</v>
+        <v>240681</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.372659876593181</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3318738023176985</v>
+        <v>0.3331079903218961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.418400821312436</v>
+        <v>0.415544824784696</v>
       </c>
     </row>
     <row r="8">
@@ -5125,19 +5125,19 @@
         <v>11835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6465</v>
+        <v>6462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20437</v>
+        <v>20296</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04040141512596889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02207065571653587</v>
+        <v>0.02206072248166025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06976783522810083</v>
+        <v>0.06928764985380183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -5146,19 +5146,19 @@
         <v>24904</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16470</v>
+        <v>15517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36430</v>
+        <v>36128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08699790214451303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05753521169965691</v>
+        <v>0.05420532961553463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1272607940199311</v>
+        <v>0.126204617837253</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -5167,19 +5167,19 @@
         <v>36739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25558</v>
+        <v>25477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49299</v>
+        <v>49392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06343167694978492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04412659111121585</v>
+        <v>0.0439875622596003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0851169974379407</v>
+        <v>0.08527784736515501</v>
       </c>
     </row>
     <row r="9">
@@ -5271,19 +5271,19 @@
         <v>6691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2834</v>
+        <v>2849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13431</v>
+        <v>12738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01323598175451106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005605427550605962</v>
+        <v>0.005635714639437614</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02656890837924416</v>
+        <v>0.02519689440909894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5292,19 +5292,19 @@
         <v>8874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3839</v>
+        <v>3861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17878</v>
+        <v>16492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01704181321295173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007373784618224859</v>
+        <v>0.007415899579862185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03433564398390879</v>
+        <v>0.03167255547479403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5313,19 +5313,19 @@
         <v>15565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8806</v>
+        <v>8725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25341</v>
+        <v>25421</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01516701761310427</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008580658730064181</v>
+        <v>0.008501851893262403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02469310137251511</v>
+        <v>0.0247716480880811</v>
       </c>
     </row>
     <row r="11">
@@ -5342,19 +5342,19 @@
         <v>75419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59745</v>
+        <v>61089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93699</v>
+        <v>93260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1491887984324088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1181830350993859</v>
+        <v>0.1208425900658683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1853499515243508</v>
+        <v>0.1844814731638306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -5363,19 +5363,19 @@
         <v>59693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45332</v>
+        <v>46629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75235</v>
+        <v>77458</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1146411845169757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08706072541184798</v>
+        <v>0.08955109077976936</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1444911789389131</v>
+        <v>0.1487589023615378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>126</v>
@@ -5384,19 +5384,19 @@
         <v>135112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112146</v>
+        <v>114155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157715</v>
+        <v>159507</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1316597296788312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1092805476971763</v>
+        <v>0.1112388229815453</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1536854211781877</v>
+        <v>0.1554315262432643</v>
       </c>
     </row>
     <row r="12">
@@ -5413,19 +5413,19 @@
         <v>343470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>322154</v>
+        <v>321064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>364979</v>
+        <v>364622</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6794290500837658</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6372639536856963</v>
+        <v>0.6351070350408796</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7219766523978843</v>
+        <v>0.7212714929469348</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>343</v>
@@ -5434,19 +5434,19 @@
         <v>376264</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>355188</v>
+        <v>352636</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>397170</v>
+        <v>396821</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7226227013557421</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6821453450929449</v>
+        <v>0.6772439749395234</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7627725349635334</v>
+        <v>0.7621028406284657</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>664</v>
@@ -5455,19 +5455,19 @@
         <v>719734</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>688958</v>
+        <v>686752</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>749090</v>
+        <v>751084</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7013450204520203</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6713558175059305</v>
+        <v>0.6692060894589472</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7299515725101826</v>
+        <v>0.731894406410535</v>
       </c>
     </row>
     <row r="13">
@@ -5484,19 +5484,19 @@
         <v>77990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62393</v>
+        <v>61911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96693</v>
+        <v>97656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1542745635740918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1234208934416455</v>
+        <v>0.1224691431669262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1912717962370648</v>
+        <v>0.1931774853059855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -5505,19 +5505,19 @@
         <v>69723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55234</v>
+        <v>55306</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87245</v>
+        <v>87202</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.13390387392284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1060782021785603</v>
+        <v>0.106216957102141</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1675552216341828</v>
+        <v>0.1674732455268655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -5526,19 +5526,19 @@
         <v>147713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124048</v>
+        <v>124039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172151</v>
+        <v>170663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1439387059276374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1208790191610212</v>
+        <v>0.1208696911267383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1677527226379306</v>
+        <v>0.1663027183639395</v>
       </c>
     </row>
     <row r="14">
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6192</v>
+        <v>6869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003871606155222442</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01224793730951984</v>
+        <v>0.01358708443189567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -5576,19 +5576,19 @@
         <v>6139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2114</v>
+        <v>2068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16203</v>
+        <v>14587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0117904269914904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004060000397404928</v>
+        <v>0.003972031033859271</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03111770642753868</v>
+        <v>0.02801504119676752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -5597,19 +5597,19 @@
         <v>8096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3971</v>
+        <v>3159</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16847</v>
+        <v>16437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00788952632840682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003869985612437888</v>
+        <v>0.003078173588711518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01641632771332562</v>
+        <v>0.01601663477736077</v>
       </c>
     </row>
     <row r="15">
@@ -5701,19 +5701,19 @@
         <v>3827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9502</v>
+        <v>9732</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01180928960614634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002895694488356689</v>
+        <v>0.002875406873444542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02932337425324087</v>
+        <v>0.03003325797682789</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5725,16 +5725,16 @@
         <v>973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8080</v>
+        <v>8896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008673299512587758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002853607322063753</v>
+        <v>0.002851831578223576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02369330009337124</v>
+        <v>0.0260871309305119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5743,19 +5743,19 @@
         <v>6785</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13642</v>
+        <v>12799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01020127573546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004369192675120218</v>
+        <v>0.004353933601860097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02051165385152943</v>
+        <v>0.01924476808480111</v>
       </c>
     </row>
     <row r="17">
@@ -5772,19 +5772,19 @@
         <v>27572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18885</v>
+        <v>18022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38944</v>
+        <v>38414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08508816593049373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05827725464220662</v>
+        <v>0.0556167419897691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.120179757022523</v>
+        <v>0.1185435906565745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -5793,19 +5793,19 @@
         <v>25539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16612</v>
+        <v>16862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37786</v>
+        <v>36578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07488900501107083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04871382381720458</v>
+        <v>0.04944498664054871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1108042015527998</v>
+        <v>0.1072603708111793</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -5814,19 +5814,19 @@
         <v>53111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39711</v>
+        <v>40959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67806</v>
+        <v>71391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0798584325006972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05971008234987114</v>
+        <v>0.06158572528379064</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1019535737833374</v>
+        <v>0.1073435595528533</v>
       </c>
     </row>
     <row r="18">
@@ -5843,19 +5843,19 @@
         <v>206041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>188343</v>
+        <v>188640</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>221270</v>
+        <v>223742</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6358376539332705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.581222173034079</v>
+        <v>0.5821399824712988</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.682835208003301</v>
+        <v>0.6904629544498658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>192</v>
@@ -5864,19 +5864,19 @@
         <v>206220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>188300</v>
+        <v>185464</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>224212</v>
+        <v>223648</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6047147908918649</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5521659036003749</v>
+        <v>0.5438522573789668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6574759051261594</v>
+        <v>0.6558197214294902</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>392</v>
@@ -5885,19 +5885,19 @@
         <v>412260</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>387419</v>
+        <v>386724</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>435775</v>
+        <v>438068</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6198790590484055</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5825278688350036</v>
+        <v>0.5814818718601722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6552359456297091</v>
+        <v>0.6586829184795245</v>
       </c>
     </row>
     <row r="19">
@@ -5914,19 +5914,19 @@
         <v>81748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67687</v>
+        <v>66790</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97408</v>
+        <v>98913</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2522713366611418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2088811609193105</v>
+        <v>0.2061129290245406</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3005993580820546</v>
+        <v>0.3052424436433107</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -5935,19 +5935,19 @@
         <v>100555</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84294</v>
+        <v>83181</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118087</v>
+        <v>118193</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.294864872604657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2471831024778271</v>
+        <v>0.2439191903371632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3462769739339156</v>
+        <v>0.3465857433410247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>177</v>
@@ -5956,19 +5956,19 @@
         <v>182302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159774</v>
+        <v>160111</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>204607</v>
+        <v>206878</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2741116469157667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2402380149751042</v>
+        <v>0.2407446715496527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3076498379557788</v>
+        <v>0.3110637879605605</v>
       </c>
     </row>
     <row r="20">
@@ -5985,19 +5985,19 @@
         <v>4859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1839</v>
+        <v>1891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11186</v>
+        <v>10703</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0149935538689476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005675512244228901</v>
+        <v>0.005836445431460136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0345186238169202</v>
+        <v>0.03302777483377813</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6006,19 +6006,19 @@
         <v>5749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1996</v>
+        <v>1962</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15064</v>
+        <v>13413</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01685803197981953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005853231116476977</v>
+        <v>0.005754395615242179</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04417194940380618</v>
+        <v>0.03933115876357669</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6027,19 +6027,19 @@
         <v>10608</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4919</v>
+        <v>5656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19215</v>
+        <v>19197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01594958579967063</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007396781817858965</v>
+        <v>0.008504699555134498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02889133314922116</v>
+        <v>0.02886480702926169</v>
       </c>
     </row>
     <row r="21">
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5727</v>
+        <v>5107</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002714743014274794</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01531251167362878</v>
+        <v>0.01365662980271045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6152,19 +6152,19 @@
         <v>2958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8126</v>
+        <v>7980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007606101471712022</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002329399650141575</v>
+        <v>0.002284128326899997</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02089107208714945</v>
+        <v>0.0205158308768114</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6173,19 +6173,19 @@
         <v>3974</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1044</v>
+        <v>976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9958</v>
+        <v>9175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005208406896858135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001368006285953116</v>
+        <v>0.001279508439983897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01305259222815945</v>
+        <v>0.01202660512936424</v>
       </c>
     </row>
     <row r="23">
@@ -6202,19 +6202,19 @@
         <v>9169</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4214</v>
+        <v>4415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16828</v>
+        <v>16106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0245175512654616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01126821895609596</v>
+        <v>0.01180589012899195</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04499596593373582</v>
+        <v>0.04306621581049475</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -6223,19 +6223,19 @@
         <v>13451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7566</v>
+        <v>7697</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20989</v>
+        <v>22728</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03458395671355884</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01945111903858017</v>
+        <v>0.01979026096008959</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05396417473208573</v>
+        <v>0.05843357822729436</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -6244,19 +6244,19 @@
         <v>22621</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14099</v>
+        <v>15470</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31738</v>
+        <v>34330</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02964950630653873</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01847951615947335</v>
+        <v>0.0202773155290532</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04160029026959667</v>
+        <v>0.04499788976604787</v>
       </c>
     </row>
     <row r="24">
@@ -6273,19 +6273,19 @@
         <v>188347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>170481</v>
+        <v>168603</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>209033</v>
+        <v>207916</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5036246223806622</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.455854360508422</v>
+        <v>0.4508307820608887</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5589397046558822</v>
+        <v>0.5559514277746995</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>201</v>
@@ -6294,19 +6294,19 @@
         <v>206941</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>186648</v>
+        <v>186330</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226834</v>
+        <v>225820</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.53204799526475</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4798742198076694</v>
+        <v>0.4790566251553846</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5831942436986094</v>
+        <v>0.5805865082188865</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>376</v>
@@ -6315,19 +6315,19 @@
         <v>395287</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>364960</v>
+        <v>368648</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>424414</v>
+        <v>424817</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5181151445942773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4783644324266798</v>
+        <v>0.4831981199329613</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5562919951823007</v>
+        <v>0.5568213049358116</v>
       </c>
     </row>
     <row r="25">
@@ -6344,19 +6344,19 @@
         <v>167077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147200</v>
+        <v>147589</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>185746</v>
+        <v>187230</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4467525541782033</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3936011286949364</v>
+        <v>0.3946423421849519</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4966711369901503</v>
+        <v>0.5006389653959051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -6365,19 +6365,19 @@
         <v>153038</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134198</v>
+        <v>134327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>172919</v>
+        <v>173310</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3934634265133615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3450261660113503</v>
+        <v>0.3453563979305758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4445769548737955</v>
+        <v>0.4455820317838546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>292</v>
@@ -6386,19 +6386,19 @@
         <v>320115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292266</v>
+        <v>293608</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>350385</v>
+        <v>349674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4195852193470913</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.383082744870816</v>
+        <v>0.3848417137194</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4592608308915531</v>
+        <v>0.4583282505033222</v>
       </c>
     </row>
     <row r="26">
@@ -6415,19 +6415,19 @@
         <v>8374</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3760</v>
+        <v>4150</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15354</v>
+        <v>15641</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02239052916139815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01005523111288251</v>
+        <v>0.01109638016324596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04105412493171352</v>
+        <v>0.04182251521934369</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -6436,19 +6436,19 @@
         <v>12563</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6595</v>
+        <v>6380</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21380</v>
+        <v>21189</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03229852003661759</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.016956781908419</v>
+        <v>0.01640360482560716</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05496875167355043</v>
+        <v>0.05447716056474618</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -6457,19 +6457,19 @@
         <v>20936</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12507</v>
+        <v>12949</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31535</v>
+        <v>31107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0274417228552345</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01639389319109003</v>
+        <v>0.01697264945981328</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04133332045451879</v>
+        <v>0.04077312291758785</v>
       </c>
     </row>
     <row r="27">
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6976</v>
+        <v>6760</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00936121576878351</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03281222446444176</v>
+        <v>0.03179591190003993</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -6582,19 +6582,19 @@
         <v>4789</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11984</v>
+        <v>12032</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02180961733423542</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005018875837354489</v>
+        <v>0.004855398032192391</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05457518484205572</v>
+        <v>0.05479282308189282</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -6603,19 +6603,19 @@
         <v>6780</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2840</v>
+        <v>2737</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15090</v>
+        <v>14717</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01568583348656798</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006570903268391304</v>
+        <v>0.006332320315810406</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03491348310062527</v>
+        <v>0.03405038082946228</v>
       </c>
     </row>
     <row r="29">
@@ -6632,19 +6632,19 @@
         <v>7480</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3154</v>
+        <v>3266</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14978</v>
+        <v>15364</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03518248811351618</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0148354770236893</v>
+        <v>0.01536300844128296</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07044398633576343</v>
+        <v>0.07225876164930371</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -6653,19 +6653,19 @@
         <v>7058</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2972</v>
+        <v>2940</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13477</v>
+        <v>13627</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03214268353674113</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01353369666812849</v>
+        <v>0.01338635234323474</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06137459454049049</v>
+        <v>0.06205704828500432</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -6674,19 +6674,19 @@
         <v>14539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8298</v>
+        <v>8114</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23187</v>
+        <v>22933</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03363806477660916</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01919818505844053</v>
+        <v>0.01877351488988204</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05364650906007364</v>
+        <v>0.05305942026389161</v>
       </c>
     </row>
     <row r="30">
@@ -6703,19 +6703,19 @@
         <v>171412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>159466</v>
+        <v>157915</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182177</v>
+        <v>181632</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8061967661210304</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.750012560370693</v>
+        <v>0.7427157891534624</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8568292938737877</v>
+        <v>0.8542647661015176</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>164</v>
@@ -6724,19 +6724,19 @@
         <v>169638</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>155332</v>
+        <v>157858</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>181987</v>
+        <v>181730</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7725180070909098</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7073688676422096</v>
+        <v>0.7188708187337037</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8287542370052509</v>
+        <v>0.8275824415041843</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>320</v>
@@ -6745,19 +6745,19 @@
         <v>341050</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>321292</v>
+        <v>320892</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>357424</v>
+        <v>358584</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7890857117454994</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7433718588552993</v>
+        <v>0.7424467722526864</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8269705979602178</v>
+        <v>0.8296532515846463</v>
       </c>
     </row>
     <row r="31">
@@ -6774,19 +6774,19 @@
         <v>29331</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19753</v>
+        <v>20419</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39456</v>
+        <v>40785</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1379528321152957</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09290439498023853</v>
+        <v>0.09603841071427935</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1855722661109916</v>
+        <v>0.1918244980518022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -6795,19 +6795,19 @@
         <v>36149</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>26527</v>
+        <v>26261</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48842</v>
+        <v>47260</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1646205946455783</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1208028540212406</v>
+        <v>0.1195910611792763</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2224234534828955</v>
+        <v>0.2152194554529258</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>64</v>
@@ -6816,19 +6816,19 @@
         <v>65480</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51329</v>
+        <v>50066</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83033</v>
+        <v>82513</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1515018329653957</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1187599720333935</v>
+        <v>0.1158371996296105</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1921132032780226</v>
+        <v>0.1909092378586788</v>
       </c>
     </row>
     <row r="32">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7694</v>
+        <v>8095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01130669788137412</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03618851267823811</v>
+        <v>0.03807355091829771</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6790</v>
+        <v>5989</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00890909739253538</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03091984065788707</v>
+        <v>0.02727400233638807</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -6887,19 +6887,19 @@
         <v>4360</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1353</v>
+        <v>1026</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10808</v>
+        <v>11210</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01008855702592786</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003130528407465621</v>
+        <v>0.002373823722818678</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02500687760953278</v>
+        <v>0.02593722462794504</v>
       </c>
     </row>
     <row r="33">
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8314</v>
+        <v>8570</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008465082311184523</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03034413678107722</v>
+        <v>0.03128000645517981</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -7012,19 +7012,19 @@
         <v>3089</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8457</v>
+        <v>8040</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01107303569553236</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003403874830409168</v>
+        <v>0.003372926238424561</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03031169610683383</v>
+        <v>0.02881621877646284</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -7033,19 +7033,19 @@
         <v>5409</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12520</v>
+        <v>11049</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009780885881336224</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003522967640418743</v>
+        <v>0.003510528612498863</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02264096528259578</v>
+        <v>0.01998105666324617</v>
       </c>
     </row>
     <row r="35">
@@ -7062,19 +7062,19 @@
         <v>23044</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14876</v>
+        <v>14409</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33338</v>
+        <v>34345</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08410695838663963</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05429725864711324</v>
+        <v>0.05259019020074584</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1216785848862071</v>
+        <v>0.1253540810414434</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -7083,19 +7083,19 @@
         <v>16964</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10206</v>
+        <v>9923</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26403</v>
+        <v>26147</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06080202934452024</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03658160702202867</v>
+        <v>0.03556696302527899</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09463614182496353</v>
+        <v>0.09371800071971231</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -7104,19 +7104,19 @@
         <v>40007</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30155</v>
+        <v>28899</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>55594</v>
+        <v>53810</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07234880771577516</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05453128875984348</v>
+        <v>0.05226105039459674</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1005365995242233</v>
+        <v>0.09730992633568371</v>
       </c>
     </row>
     <row r="36">
@@ -7133,19 +7133,19 @@
         <v>164582</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>147002</v>
+        <v>147332</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>181737</v>
+        <v>183454</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6007072537978916</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5365404357806207</v>
+        <v>0.5377455128020896</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6633181821332964</v>
+        <v>0.6695871923921694</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>167</v>
@@ -7154,19 +7154,19 @@
         <v>173049</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>156873</v>
+        <v>156521</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>188812</v>
+        <v>188945</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6202557657717241</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5622777820948589</v>
+        <v>0.5610148807161205</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6767534480224972</v>
+        <v>0.6772332015753842</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>325</v>
@@ -7175,19 +7175,19 @@
         <v>337631</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>313515</v>
+        <v>314621</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>358794</v>
+        <v>362126</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6105701608577715</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5669584914603887</v>
+        <v>0.5689579694979958</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6488398481355607</v>
+        <v>0.6548659034481186</v>
       </c>
     </row>
     <row r="37">
@@ -7204,19 +7204,19 @@
         <v>75907</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>58994</v>
+        <v>61146</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>90927</v>
+        <v>93815</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.277051620371338</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2153227595040069</v>
+        <v>0.2231744656616784</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3318742661465667</v>
+        <v>0.3424156770932361</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>73</v>
@@ -7225,19 +7225,19 @@
         <v>77118</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>62619</v>
+        <v>63146</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91938</v>
+        <v>93587</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2764136845500356</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2244423388463798</v>
+        <v>0.2263328011150916</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3295332526178693</v>
+        <v>0.3354431749777544</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>144</v>
@@ -7246,19 +7246,19 @@
         <v>153025</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>132948</v>
+        <v>131773</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>174004</v>
+        <v>175365</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2767297594683651</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2404230248071025</v>
+        <v>0.2382977839522187</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3146677075673706</v>
+        <v>0.3171294413072552</v>
       </c>
     </row>
     <row r="38">
@@ -7275,19 +7275,19 @@
         <v>8129</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3136</v>
+        <v>3105</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14843</v>
+        <v>15224</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02966908513294627</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01144627046005405</v>
+        <v>0.01133342119281029</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0541751374321161</v>
+        <v>0.05556442329961393</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -7296,19 +7296,19 @@
         <v>8776</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3845</v>
+        <v>3956</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>17581</v>
+        <v>16747</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0314554846381877</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01378260519297216</v>
+        <v>0.01417977939567393</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06301661975329539</v>
+        <v>0.06002609141735901</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -7317,19 +7317,19 @@
         <v>16905</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10080</v>
+        <v>10176</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>27550</v>
+        <v>26798</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03057038607675195</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01822936127519627</v>
+        <v>0.018402439725829</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04982140302029135</v>
+        <v>0.0484614613392249</v>
       </c>
     </row>
     <row r="39">
@@ -7421,19 +7421,19 @@
         <v>11543</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5590</v>
+        <v>5739</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20166</v>
+        <v>20147</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01757962819134875</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008513368133555002</v>
+        <v>0.008740071229400282</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03071340500682357</v>
+        <v>0.03068501223901804</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -7442,19 +7442,19 @@
         <v>9848</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4686</v>
+        <v>5218</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18777</v>
+        <v>18159</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01430711981639345</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006807202996486995</v>
+        <v>0.007581329462972347</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0272791343389342</v>
+        <v>0.02638094263574724</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -7463,19 +7463,19 @@
         <v>21390</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13314</v>
+        <v>13845</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32332</v>
+        <v>32136</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01590476240245198</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00989981308024114</v>
+        <v>0.01029438661591655</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02404037795861331</v>
+        <v>0.02389447408702165</v>
       </c>
     </row>
     <row r="41">
@@ -7492,19 +7492,19 @@
         <v>64525</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>50135</v>
+        <v>50648</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>81330</v>
+        <v>82461</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09827332126777603</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07635742668929248</v>
+        <v>0.07713906545423033</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1238686447320462</v>
+        <v>0.1255906162653953</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>80</v>
@@ -7513,19 +7513,19 @@
         <v>88508</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>69673</v>
+        <v>71342</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>109064</v>
+        <v>107705</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1285859606040411</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1012221391438907</v>
+        <v>0.1036464256289008</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.158448851465708</v>
+        <v>0.1564745926708657</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>142</v>
@@ -7534,19 +7534,19 @@
         <v>153033</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>129760</v>
+        <v>129640</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>177051</v>
+        <v>176674</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1137872930528506</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0964828973588675</v>
+        <v>0.09639331698336291</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1316456499934768</v>
+        <v>0.1313655173892372</v>
       </c>
     </row>
     <row r="42">
@@ -7563,19 +7563,19 @@
         <v>419273</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>394625</v>
+        <v>392071</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>443340</v>
+        <v>444723</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.638566933802628</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6010268343411397</v>
+        <v>0.5971368703876976</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.675220746471081</v>
+        <v>0.6773277994357332</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>404</v>
@@ -7584,19 +7584,19 @@
         <v>439220</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>411235</v>
+        <v>413393</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>464252</v>
+        <v>467117</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6381037045268734</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.597446923711043</v>
+        <v>0.6005811793230372</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6744706327890995</v>
+        <v>0.6786321549424561</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>794</v>
@@ -7605,19 +7605,19 @@
         <v>858494</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>823256</v>
+        <v>822295</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>893234</v>
+        <v>897460</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6383298536251365</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6121288130384606</v>
+        <v>0.6114147431754356</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6641608738931307</v>
+        <v>0.6673032631059586</v>
       </c>
     </row>
     <row r="43">
@@ -7634,19 +7634,19 @@
         <v>141990</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>121485</v>
+        <v>122303</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>164392</v>
+        <v>166481</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2162560560536839</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1850260141343893</v>
+        <v>0.1862711654497691</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2503738708068853</v>
+        <v>0.2535555398176154</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>126</v>
@@ -7655,19 +7655,19 @@
         <v>138823</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>115930</v>
+        <v>117527</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>159994</v>
+        <v>162230</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.201684076811574</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1684239934785592</v>
+        <v>0.170744310500752</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2324406076253008</v>
+        <v>0.2356899479476905</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>260</v>
@@ -7676,19 +7676,19 @@
         <v>280814</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>250345</v>
+        <v>250085</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>312498</v>
+        <v>312489</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2087981348774067</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1861427616918195</v>
+        <v>0.185949749932624</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2323566488677705</v>
+        <v>0.2323497854048924</v>
       </c>
     </row>
     <row r="44">
@@ -7705,19 +7705,19 @@
         <v>19254</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11202</v>
+        <v>11415</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>31961</v>
+        <v>31326</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02932406068456332</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01706172795611746</v>
+        <v>0.01738553860530171</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0486781156444561</v>
+        <v>0.04771103568956792</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -7726,19 +7726,19 @@
         <v>11921</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6847</v>
+        <v>6823</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>19906</v>
+        <v>20067</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0173191382411181</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009946938193076951</v>
+        <v>0.009912334100576134</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0289202251853536</v>
+        <v>0.02915376455910789</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>28</v>
@@ -7747,19 +7747,19 @@
         <v>31175</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>21524</v>
+        <v>20750</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46773</v>
+        <v>45613</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02317995604215425</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0160037522802545</v>
+        <v>0.01542881240589073</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03477825449624247</v>
+        <v>0.03391537196218129</v>
       </c>
     </row>
     <row r="45">
@@ -7851,19 +7851,19 @@
         <v>6370</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2203</v>
+        <v>2349</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13033</v>
+        <v>14416</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008175865306668927</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002828164037457758</v>
+        <v>0.003015326771016044</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01672803902823946</v>
+        <v>0.01850362766359548</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>11</v>
@@ -7872,19 +7872,19 @@
         <v>10987</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6009</v>
+        <v>5798</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>19422</v>
+        <v>18767</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01338986533824651</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007323789930457996</v>
+        <v>0.007065462806732824</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02367027025401222</v>
+        <v>0.02287130842712788</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>17</v>
@@ -7893,19 +7893,19 @@
         <v>17357</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10727</v>
+        <v>10034</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>27132</v>
+        <v>26745</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01085040727286378</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006706157630094075</v>
+        <v>0.006272426960585958</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01696101506822748</v>
+        <v>0.01671966369533679</v>
       </c>
     </row>
     <row r="47">
@@ -7922,19 +7922,19 @@
         <v>67367</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>51257</v>
+        <v>53372</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>84061</v>
+        <v>87244</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08646834696945699</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06578968809686922</v>
+        <v>0.06850458376822781</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1078952754329917</v>
+        <v>0.1119809716863759</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>84</v>
@@ -7943,19 +7943,19 @@
         <v>91477</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>74043</v>
+        <v>74071</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>112704</v>
+        <v>110155</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1114839925781494</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09023682106596255</v>
+        <v>0.09027141965005035</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1373527046498734</v>
+        <v>0.1342468316326668</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>148</v>
@@ -7964,19 +7964,19 @@
         <v>158845</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>133708</v>
+        <v>134262</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>184326</v>
+        <v>185313</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09930022145866037</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08358650202393282</v>
+        <v>0.08393271764035222</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1152294297968237</v>
+        <v>0.1158466628429287</v>
       </c>
     </row>
     <row r="48">
@@ -7993,19 +7993,19 @@
         <v>449346</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>420219</v>
+        <v>417224</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>477185</v>
+        <v>474336</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5767514137241212</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5393654337455855</v>
+        <v>0.535522007526684</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6124837842773404</v>
+        <v>0.6088275573715524</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>424</v>
@@ -8014,19 +8014,19 @@
         <v>467302</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>437098</v>
+        <v>436567</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>494642</v>
+        <v>496652</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5695038153276968</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5326940203806592</v>
+        <v>0.5320465537153766</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6028230244795395</v>
+        <v>0.6052734657326515</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>841</v>
@@ -8035,19 +8035,19 @@
         <v>916648</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>877687</v>
+        <v>875010</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>959010</v>
+        <v>958435</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5730337294226313</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5486778714018864</v>
+        <v>0.5470041496356548</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5995162076553791</v>
+        <v>0.5991566486165658</v>
       </c>
     </row>
     <row r="49">
@@ -8064,19 +8064,19 @@
         <v>233673</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>206332</v>
+        <v>209297</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>260209</v>
+        <v>264445</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2999272003696096</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2648347418933785</v>
+        <v>0.2686402932636804</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3339880626546514</v>
+        <v>0.3394241746132651</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>207</v>
@@ -8085,19 +8085,19 @@
         <v>221399</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>196079</v>
+        <v>198381</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>248874</v>
+        <v>247739</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2698209636435822</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.23896326236486</v>
+        <v>0.2417683286460566</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3033045118308395</v>
+        <v>0.3019214042850622</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>417</v>
@@ -8106,19 +8106,19 @@
         <v>455072</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>415912</v>
+        <v>418002</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>492027</v>
+        <v>494067</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.284484087005532</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2600032308795993</v>
+        <v>0.2613101729338078</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.307586170874416</v>
+        <v>0.30886128433746</v>
       </c>
     </row>
     <row r="50">
@@ -8135,19 +8135,19 @@
         <v>22342</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>14066</v>
+        <v>13918</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>34643</v>
+        <v>33658</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02867717363014322</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01805458765474826</v>
+        <v>0.01786439749035363</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04446599266581314</v>
+        <v>0.04320127752804396</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>28</v>
@@ -8156,19 +8156,19 @@
         <v>29377</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>19999</v>
+        <v>19803</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>42544</v>
+        <v>42299</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03580136311232511</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0243726457990475</v>
+        <v>0.02413451128382958</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05184805942580734</v>
+        <v>0.05155012846521029</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>48</v>
@@ -8177,19 +8177,19 @@
         <v>51719</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>37525</v>
+        <v>39266</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>66748</v>
+        <v>69523</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.03233155484031255</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0234585520869667</v>
+        <v>0.02454681352788347</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04172704908179543</v>
+        <v>0.04346158694811401</v>
       </c>
     </row>
     <row r="51">
@@ -8281,19 +8281,19 @@
         <v>47513</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>34482</v>
+        <v>34926</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>63738</v>
+        <v>64283</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01389769934533897</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01008596995121471</v>
+        <v>0.01021600957337964</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01864356207411191</v>
+        <v>0.01880300365934095</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>56</v>
@@ -8302,19 +8302,19 @@
         <v>62843</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>48837</v>
+        <v>47334</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>81992</v>
+        <v>81345</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01773020983993179</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01377869344477538</v>
+        <v>0.01335455402218139</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02313298764109078</v>
+        <v>0.02295050997653593</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>101</v>
@@ -8323,19 +8323,19 @@
         <v>110356</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>89170</v>
+        <v>90827</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>132185</v>
+        <v>133926</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01584852351836127</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01280594478223207</v>
+        <v>0.01304398765441818</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01898348947646153</v>
+        <v>0.01923359087447047</v>
       </c>
     </row>
     <row r="53">
@@ -8352,19 +8352,19 @@
         <v>281636</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>247089</v>
+        <v>248441</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>315262</v>
+        <v>315980</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08237936589779828</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07227423516302789</v>
+        <v>0.07266978152329119</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09221515073716949</v>
+        <v>0.09242506714748872</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>291</v>
@@ -8373,19 +8373,19 @@
         <v>313040</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>278655</v>
+        <v>278602</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>351683</v>
+        <v>348194</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08832007885558341</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07861895517708779</v>
+        <v>0.07860398377197128</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0992228795827577</v>
+        <v>0.09823823688519739</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>558</v>
@@ -8394,19 +8394,19 @@
         <v>594676</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>549669</v>
+        <v>548813</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>642065</v>
+        <v>646835</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.08540330711319352</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.07893976280769216</v>
+        <v>0.07881680573874561</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.09220908066238546</v>
+        <v>0.09289412994724776</v>
       </c>
     </row>
     <row r="54">
@@ -8423,19 +8423,19 @@
         <v>2089602</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2032172</v>
+        <v>2037159</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2151711</v>
+        <v>2151638</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.6112153641735469</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5944168763072823</v>
+        <v>0.5958757305445221</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.6293825003102661</v>
+        <v>0.6293610823637683</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2010</v>
@@ -8444,19 +8444,19 @@
         <v>2167609</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2104943</v>
+        <v>2111756</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2222654</v>
+        <v>2226179</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.6115623951818228</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5938821336647229</v>
+        <v>0.5958041429842077</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.6270927233003446</v>
+        <v>0.6280872772136213</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3969</v>
@@ -8465,19 +8465,19 @@
         <v>4257211</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>4168498</v>
+        <v>4171117</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4342822</v>
+        <v>4331774</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.6113920098685002</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5986516554072233</v>
+        <v>0.5990278115857222</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.6236869127864977</v>
+        <v>0.6221003192258995</v>
       </c>
     </row>
     <row r="55">
@@ -8494,19 +8494,19 @@
         <v>920862</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>866659</v>
+        <v>864856</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>972965</v>
+        <v>969658</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2693550616328956</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.253500717406303</v>
+        <v>0.2529732340943661</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2845955723970875</v>
+        <v>0.2836282086322682</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>834</v>
@@ -8515,19 +8515,19 @@
         <v>899503</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>847100</v>
+        <v>844138</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>948136</v>
+        <v>952824</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2537828390408371</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2389981458761946</v>
+        <v>0.2381623588154542</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2675039977708483</v>
+        <v>0.2688266756789706</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1692</v>
@@ -8536,19 +8536,19 @@
         <v>1820364</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1747956</v>
+        <v>1745607</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1908290</v>
+        <v>1895364</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2614284901849812</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2510296695930685</v>
+        <v>0.2506923650715666</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2740558110640336</v>
+        <v>0.2721994112911526</v>
       </c>
     </row>
     <row r="56">
@@ -8565,19 +8565,19 @@
         <v>79153</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>61797</v>
+        <v>62517</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>98500</v>
+        <v>101234</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02315250895042012</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01807583172325046</v>
+        <v>0.01828653233161738</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02881154858630372</v>
+        <v>0.02961140834036752</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>94</v>
@@ -8586,19 +8586,19 @@
         <v>101385</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>81937</v>
+        <v>81321</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>122685</v>
+        <v>125759</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02860447708182499</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02311750170675666</v>
+        <v>0.02294372475256344</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.0346138603873622</v>
+        <v>0.0354813796727885</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>167</v>
@@ -8607,19 +8607,19 @@
         <v>180538</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>152354</v>
+        <v>153139</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>209991</v>
+        <v>208269</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02592766931496384</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02188005121275587</v>
+        <v>0.02199285915909999</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.03015753056520791</v>
+        <v>0.02991024243833076</v>
       </c>
     </row>
     <row r="57">
@@ -8955,19 +8955,19 @@
         <v>9347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4323</v>
+        <v>4511</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17776</v>
+        <v>18073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03191981858410882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0147620114433885</v>
+        <v>0.01540527126777148</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070770477510218</v>
+        <v>0.06172168714241768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -8976,19 +8976,19 @@
         <v>10022</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4853</v>
+        <v>4863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18187</v>
+        <v>18944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03493585275674279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01691857600671379</v>
+        <v>0.01695074688014924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.063399697157268</v>
+        <v>0.06603889983263511</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -8997,19 +8997,19 @@
         <v>19368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11377</v>
+        <v>11981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30037</v>
+        <v>31931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0334123475331067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01962579073351852</v>
+        <v>0.02066827559745294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05181613279357017</v>
+        <v>0.05508373357476492</v>
       </c>
     </row>
     <row r="5">
@@ -9026,19 +9026,19 @@
         <v>21097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13489</v>
+        <v>12796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33488</v>
+        <v>32981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07204953196408397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04606699835928291</v>
+        <v>0.04370137320175235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1143670427309706</v>
+        <v>0.112635265841674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -9047,19 +9047,19 @@
         <v>27467</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18109</v>
+        <v>19212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39555</v>
+        <v>40251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09574854509318349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06312674218469898</v>
+        <v>0.06697290910761788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1378898393163518</v>
+        <v>0.1403146722977348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -9068,19 +9068,19 @@
         <v>48564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35827</v>
+        <v>36772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62727</v>
+        <v>64106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08377733779559787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0618051594445265</v>
+        <v>0.06343574834868936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1082106622910505</v>
+        <v>0.1105899786285042</v>
       </c>
     </row>
     <row r="6">
@@ -9097,19 +9097,19 @@
         <v>187381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169689</v>
+        <v>169582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203515</v>
+        <v>202801</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6399304180553528</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.579508581863776</v>
+        <v>0.5791433977282723</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6950294502249443</v>
+        <v>0.6925916424640312</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>166</v>
@@ -9118,19 +9118,19 @@
         <v>170636</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>154004</v>
+        <v>153573</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>186952</v>
+        <v>187727</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5948373815612947</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.536858783261731</v>
+        <v>0.5353561088345916</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6517134021383582</v>
+        <v>0.6544161324070302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>333</v>
@@ -9139,19 +9139,19 @@
         <v>358017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>336025</v>
+        <v>332554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>382938</v>
+        <v>381409</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6176154645391522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5796756309146329</v>
+        <v>0.5736887347804416</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.660605162735674</v>
+        <v>0.6579675637626626</v>
       </c>
     </row>
     <row r="7">
@@ -9168,19 +9168,19 @@
         <v>64111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51142</v>
+        <v>50668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81042</v>
+        <v>80180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2189486605141897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1746575398960815</v>
+        <v>0.1730359727066974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2767699189221127</v>
+        <v>0.27382468434729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -9189,19 +9189,19 @@
         <v>67739</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54112</v>
+        <v>53752</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83013</v>
+        <v>82568</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2361385143498299</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1886359018776317</v>
+        <v>0.1873808603422417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2893820214630169</v>
+        <v>0.2878303414729081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -9210,19 +9210,19 @@
         <v>131851</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111908</v>
+        <v>113513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153121</v>
+        <v>153173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2274553129624705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1930517980292364</v>
+        <v>0.1958217074149202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2641488426435715</v>
+        <v>0.2642391422307886</v>
       </c>
     </row>
     <row r="8">
@@ -9239,19 +9239,19 @@
         <v>10879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5895</v>
+        <v>5365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18945</v>
+        <v>18460</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03715157088226472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02013346873256027</v>
+        <v>0.01832103883772346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.064699255632417</v>
+        <v>0.06304166523664106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -9260,19 +9260,19 @@
         <v>10998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5356</v>
+        <v>5541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18949</v>
+        <v>19267</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03833970623894904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01866975367190622</v>
+        <v>0.01931551370173571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06605474278980268</v>
+        <v>0.06716312841245328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -9281,19 +9281,19 @@
         <v>21877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13653</v>
+        <v>13856</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33042</v>
+        <v>33153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03773953716967272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02355307897254881</v>
+        <v>0.02390259242861404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05700088144129286</v>
+        <v>0.05719145266279194</v>
       </c>
     </row>
     <row r="9">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7232</v>
+        <v>7290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004137495777223858</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01444847842842277</v>
+        <v>0.01456587580224221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5900</v>
+        <v>6576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002234337276307326</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01127892309735534</v>
+        <v>0.01257230618754261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -9427,19 +9427,19 @@
         <v>3240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9341</v>
+        <v>8722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003164925515019044</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000994006457681903</v>
+        <v>0.0009909269552008007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009125774701141695</v>
+        <v>0.008520583136338628</v>
       </c>
     </row>
     <row r="11">
@@ -9456,19 +9456,19 @@
         <v>31109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21376</v>
+        <v>21683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43184</v>
+        <v>43550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06215428587113057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04270823445405685</v>
+        <v>0.04332317823822555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08628028799679492</v>
+        <v>0.08701274400754763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -9477,19 +9477,19 @@
         <v>33296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22520</v>
+        <v>23591</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45001</v>
+        <v>45719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06365341042038643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04305201955265455</v>
+        <v>0.04510013974319232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08602968605598646</v>
+        <v>0.0874035068216423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -9498,19 +9498,19 @@
         <v>64405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50618</v>
+        <v>50183</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80628</v>
+        <v>81545</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06292038283848525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04945138238552692</v>
+        <v>0.04902629262531252</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07876983821614411</v>
+        <v>0.07966567529423289</v>
       </c>
     </row>
     <row r="12">
@@ -9527,19 +9527,19 @@
         <v>277534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>253398</v>
+        <v>255861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299579</v>
+        <v>301553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5545088119539289</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5062838968506058</v>
+        <v>0.5112050570742009</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5985541838154836</v>
+        <v>0.602496854298072</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>274</v>
@@ -9548,19 +9548,19 @@
         <v>293328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>269983</v>
+        <v>267443</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>316195</v>
+        <v>314659</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.560766078868301</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5161376889921918</v>
+        <v>0.5112808592345726</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6044827567601868</v>
+        <v>0.6015460003509056</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>539</v>
@@ -9569,19 +9569,19 @@
         <v>570862</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>537122</v>
+        <v>538191</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>604244</v>
+        <v>603886</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5577064603477256</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5247440039901086</v>
+        <v>0.5257878153806316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5903193538179071</v>
+        <v>0.5899688723191695</v>
       </c>
     </row>
     <row r="13">
@@ -9598,19 +9598,19 @@
         <v>163811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143590</v>
+        <v>142477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185928</v>
+        <v>187113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3272912553949696</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2868897281687892</v>
+        <v>0.2846667095878739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3714806893496803</v>
+        <v>0.3738488734180648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -9619,19 +9619,19 @@
         <v>170265</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148742</v>
+        <v>150081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194908</v>
+        <v>194710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3255022102696001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.284356496644143</v>
+        <v>0.2869153321695743</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3726128867962932</v>
+        <v>0.3722345796202071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>309</v>
@@ -9640,19 +9640,19 @@
         <v>334076</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>301568</v>
+        <v>305510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>365665</v>
+        <v>370132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3263770004415125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2946179872204338</v>
+        <v>0.2984694825369367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3572380201675091</v>
+        <v>0.3616017086680817</v>
       </c>
     </row>
     <row r="14">
@@ -9669,19 +9669,19 @@
         <v>25980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16332</v>
+        <v>16651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38511</v>
+        <v>39133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05190815100274717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03263148038555397</v>
+        <v>0.0332693834710247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0769447373159555</v>
+        <v>0.07818625391978716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -9690,19 +9690,19 @@
         <v>25026</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15611</v>
+        <v>15768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35868</v>
+        <v>36020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04784396316540523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02984376784438712</v>
+        <v>0.03014384513787307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06857117063963813</v>
+        <v>0.06886109945929277</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -9711,19 +9711,19 @@
         <v>51007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37703</v>
+        <v>37760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69157</v>
+        <v>67505</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0498312308572576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03683456338735195</v>
+        <v>0.03689006541373804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06756322818288235</v>
+        <v>0.06594893943038703</v>
       </c>
     </row>
     <row r="15">
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6603</v>
+        <v>6223</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005532576167092207</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02072797809722595</v>
+        <v>0.01953476421965012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6782</v>
+        <v>5359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002691334691078458</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01035658416660908</v>
+        <v>0.008182789136431556</v>
       </c>
     </row>
     <row r="17">
@@ -9878,19 +9878,19 @@
         <v>55121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42373</v>
+        <v>43078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69876</v>
+        <v>69251</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1730280207787029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1330132094128624</v>
+        <v>0.1352260020398769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2193446329744647</v>
+        <v>0.217383253546396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -9899,19 +9899,19 @@
         <v>68031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53441</v>
+        <v>52796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83237</v>
+        <v>82397</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2022880191828271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1589056053426512</v>
+        <v>0.1569864747930355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2475015959957885</v>
+        <v>0.2450052959654858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>128</v>
@@ -9920,19 +9920,19 @@
         <v>123152</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104114</v>
+        <v>105450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>143422</v>
+        <v>145328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1880544241291673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1589827675733861</v>
+        <v>0.1610228500035444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2190070252187928</v>
+        <v>0.2219172954690921</v>
       </c>
     </row>
     <row r="18">
@@ -9949,19 +9949,19 @@
         <v>239506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>222893</v>
+        <v>223615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>253398</v>
+        <v>253460</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.751828421774233</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6996773759867181</v>
+        <v>0.7019455299638224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7954353809264633</v>
+        <v>0.7956319565437486</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>246</v>
@@ -9970,19 +9970,19 @@
         <v>253417</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>236948</v>
+        <v>237095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268784</v>
+        <v>268992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7535242346741526</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7045539787709562</v>
+        <v>0.704992989650117</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7992175106348645</v>
+        <v>0.7998359684045191</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>498</v>
@@ -9991,19 +9991,19 @@
         <v>492923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>471276</v>
+        <v>470600</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>512234</v>
+        <v>511950</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7526993024998287</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7196442999666016</v>
+        <v>0.7186115305608705</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.782187178114979</v>
+        <v>0.7817532415808079</v>
       </c>
     </row>
     <row r="19">
@@ -10020,19 +10020,19 @@
         <v>20015</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13321</v>
+        <v>12775</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29158</v>
+        <v>30267</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06282973154312024</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04181699742978493</v>
+        <v>0.04010076028924515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09152886832797537</v>
+        <v>0.09501125190566519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -10041,19 +10041,19 @@
         <v>13976</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7298</v>
+        <v>8206</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21887</v>
+        <v>23225</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04155798405980427</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02169899036031624</v>
+        <v>0.02439952706428246</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06508029506491694</v>
+        <v>0.06905883010712198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -10062,19 +10062,19 @@
         <v>33992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24757</v>
+        <v>24479</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47168</v>
+        <v>46049</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0519056756618158</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03780391182951166</v>
+        <v>0.03737917397301458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07202564646654201</v>
+        <v>0.07031664417368931</v>
       </c>
     </row>
     <row r="20">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7731</v>
+        <v>6782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006781249736851566</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02426710976970281</v>
+        <v>0.02129030304631715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5021</v>
+        <v>4040</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002629762083216016</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01493001315012418</v>
+        <v>0.01201206887641553</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -10133,19 +10133,19 @@
         <v>3045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9137</v>
+        <v>8187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004649263018109707</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00135553880146427</v>
+        <v>0.001350224171788725</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01395264453401529</v>
+        <v>0.01250235120933474</v>
       </c>
     </row>
     <row r="21">
@@ -10250,19 +10250,19 @@
         <v>9984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4708</v>
+        <v>4919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17687</v>
+        <v>19270</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02578075887495538</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01215738669089511</v>
+        <v>0.01270128978297887</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04566872710181548</v>
+        <v>0.04975677171265948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -10271,19 +10271,19 @@
         <v>9984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4580</v>
+        <v>4443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17947</v>
+        <v>19026</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01321965788799607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006063691515201467</v>
+        <v>0.005882003139788888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02376281799168204</v>
+        <v>0.02519065124981633</v>
       </c>
     </row>
     <row r="23">
@@ -10300,19 +10300,19 @@
         <v>9535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4598</v>
+        <v>4607</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19056</v>
+        <v>18807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02591143988478034</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01249438589340862</v>
+        <v>0.01251937224606008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05178386048758162</v>
+        <v>0.05110626689506365</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -10321,19 +10321,19 @@
         <v>8653</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3864</v>
+        <v>3702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15967</v>
+        <v>16089</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02234180104431165</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009976383569880348</v>
+        <v>0.009559271167493314</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04122903758801725</v>
+        <v>0.04154216668324302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -10342,19 +10342,19 @@
         <v>18188</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10780</v>
+        <v>11010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28699</v>
+        <v>29531</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02408102812368432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01427312465555702</v>
+        <v>0.01457733500511538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0379981981084511</v>
+        <v>0.03909922097813912</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>214997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195506</v>
+        <v>194332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232793</v>
+        <v>233848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5842459666608613</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5312814086659047</v>
+        <v>0.5280896206951684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6326068645717415</v>
+        <v>0.6354740204260627</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>213</v>
@@ -10392,19 +10392,19 @@
         <v>231976</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>211749</v>
+        <v>212321</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>251519</v>
+        <v>250717</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5989844489394134</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5467541719936768</v>
+        <v>0.548232364964207</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6494456663874368</v>
+        <v>0.6473751449221606</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>420</v>
@@ -10413,19 +10413,19 @@
         <v>446973</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>416961</v>
+        <v>417310</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>472858</v>
+        <v>473161</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5918034514678746</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5520669010925713</v>
+        <v>0.5525291453568855</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6260758931871071</v>
+        <v>0.6264762373559264</v>
       </c>
     </row>
     <row r="25">
@@ -10442,19 +10442,19 @@
         <v>132859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114170</v>
+        <v>113530</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151676</v>
+        <v>153022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3610389999650168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3102542008936246</v>
+        <v>0.3085124610117421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4121745822736063</v>
+        <v>0.4158320367324661</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -10463,19 +10463,19 @@
         <v>122653</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105595</v>
+        <v>104163</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>143562</v>
+        <v>141723</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3167022202074361</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2726561392214409</v>
+        <v>0.2689575510682146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3706898758604053</v>
+        <v>0.3659413326513969</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>243</v>
@@ -10484,19 +10484,19 @@
         <v>255512</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>230580</v>
+        <v>228785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>285937</v>
+        <v>282394</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3383043293878823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3052934354269531</v>
+        <v>0.3029167367659021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3785870548866586</v>
+        <v>0.3738966236629468</v>
       </c>
     </row>
     <row r="26">
@@ -10513,19 +10513,19 @@
         <v>10599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5329</v>
+        <v>5305</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18080</v>
+        <v>18381</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02880359348934167</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0144804850615879</v>
+        <v>0.01441603314931031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04913087127222965</v>
+        <v>0.0499501426475876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -10534,19 +10534,19 @@
         <v>14016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7364</v>
+        <v>7660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23451</v>
+        <v>24410</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03619077093388352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01901352406343261</v>
+        <v>0.0197777480198801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06055194202790957</v>
+        <v>0.06302886099809267</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -10555,19 +10555,19 @@
         <v>24616</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15757</v>
+        <v>15613</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36917</v>
+        <v>36705</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03259153313256264</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02086298208377763</v>
+        <v>0.02067243562354029</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04887849923054028</v>
+        <v>0.04859879447637885</v>
       </c>
     </row>
     <row r="27">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5161</v>
+        <v>5294</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004704363787444852</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0245509936083567</v>
+        <v>0.02518103146226069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10727,19 +10727,19 @@
         <v>2674</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7210</v>
+        <v>6907</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01223359619778647</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003829762178682028</v>
+        <v>0.003856784539327239</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03298551286861813</v>
+        <v>0.03159972999548848</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -10748,19 +10748,19 @@
         <v>3663</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9053</v>
+        <v>8954</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008542360978152556</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002124110179662354</v>
+        <v>0.002132131058723342</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.021111128371189</v>
+        <v>0.02088055936787028</v>
       </c>
     </row>
     <row r="30">
@@ -10777,19 +10777,19 @@
         <v>43547</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32204</v>
+        <v>33342</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>56182</v>
+        <v>55856</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2071395323770372</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1531857752482953</v>
+        <v>0.1586002636907618</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2672422068642571</v>
+        <v>0.265692959682831</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -10798,19 +10798,19 @@
         <v>46906</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35679</v>
+        <v>35641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>60969</v>
+        <v>59115</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2145895142398883</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1632268204038647</v>
+        <v>0.1630497177809092</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2789239624416301</v>
+        <v>0.2704424357337092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>93</v>
@@ -10819,19 +10819,19 @@
         <v>90453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>75848</v>
+        <v>73447</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>108029</v>
+        <v>107039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.210937131906728</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1768777813619284</v>
+        <v>0.171280104217576</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2519241588131541</v>
+        <v>0.2496152241424952</v>
       </c>
     </row>
     <row r="31">
@@ -10848,19 +10848,19 @@
         <v>161937</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>148274</v>
+        <v>148283</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>172681</v>
+        <v>172917</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7702904460728313</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7052994302373947</v>
+        <v>0.7053430848693102</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8213980082827476</v>
+        <v>0.8225215404852503</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>167</v>
@@ -10869,19 +10869,19 @@
         <v>164707</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149670</v>
+        <v>151290</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176085</v>
+        <v>175842</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7535077065021806</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6847173075042544</v>
+        <v>0.6921276386756257</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8055603563192132</v>
+        <v>0.8044477186805752</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>329</v>
@@ -10890,19 +10890,19 @@
         <v>326644</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>308525</v>
+        <v>308106</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>342896</v>
+        <v>343957</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7617355092859066</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7194827084306473</v>
+        <v>0.7185062980530789</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7996370324094773</v>
+        <v>0.8021094974065965</v>
       </c>
     </row>
     <row r="32">
@@ -10919,19 +10919,19 @@
         <v>3756</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>996</v>
+        <v>899</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9597</v>
+        <v>8626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0178656577626867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004738734748577654</v>
+        <v>0.004273990784179031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04565189162551295</v>
+        <v>0.04103204101450015</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -10940,19 +10940,19 @@
         <v>4299</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>983</v>
+        <v>1470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10431</v>
+        <v>10653</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01966918306014464</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004498996097040354</v>
+        <v>0.006722868107628036</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04771914491181056</v>
+        <v>0.04873390006195109</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -10961,19 +10961,19 @@
         <v>8055</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3581</v>
+        <v>3654</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15275</v>
+        <v>15325</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01878499782921279</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008351442952625788</v>
+        <v>0.008521066781616479</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03562242735695369</v>
+        <v>0.03573862110374704</v>
       </c>
     </row>
     <row r="33">
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7232</v>
+        <v>5967</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007444980599944273</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0274835442652608</v>
+        <v>0.0226791386283397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -11086,19 +11086,19 @@
         <v>11264</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6041</v>
+        <v>6169</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20076</v>
+        <v>18653</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04124195004358346</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02211753222457715</v>
+        <v>0.02258605288785823</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07350611720595407</v>
+        <v>0.06829684981742895</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -11107,19 +11107,19 @@
         <v>13223</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7022</v>
+        <v>7255</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22098</v>
+        <v>23284</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02465834356735691</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01309480151512376</v>
+        <v>0.01352893053637759</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04120985660610361</v>
+        <v>0.04342153047167543</v>
       </c>
     </row>
     <row r="35">
@@ -11136,19 +11136,19 @@
         <v>16005</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9147</v>
+        <v>9431</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>25829</v>
+        <v>25198</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0608273147297668</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03476153562478099</v>
+        <v>0.03584128023789861</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09816210849209474</v>
+        <v>0.0957668645497584</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -11157,19 +11157,19 @@
         <v>12808</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7009</v>
+        <v>6788</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21466</v>
+        <v>21761</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04689770319983416</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02566308212134983</v>
+        <v>0.02485221897670983</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07859536409624129</v>
+        <v>0.07967664992015105</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>27</v>
@@ -11178,19 +11178,19 @@
         <v>28814</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>19944</v>
+        <v>19799</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>42214</v>
+        <v>41666</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05373273012034958</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03719212693423028</v>
+        <v>0.03692228192407028</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07872240710682463</v>
+        <v>0.07769991289182977</v>
       </c>
     </row>
     <row r="36">
@@ -11207,19 +11207,19 @@
         <v>193448</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>179658</v>
+        <v>178502</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>207533</v>
+        <v>207362</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7352015705423071</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6827926212950083</v>
+        <v>0.6783969408208421</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.788731171364053</v>
+        <v>0.7880811022665488</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>181</v>
@@ -11228,19 +11228,19 @@
         <v>185920</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>170908</v>
+        <v>170339</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200140</v>
+        <v>202217</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6807372515994172</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6257715587891362</v>
+        <v>0.6236902712595118</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7328044736442508</v>
+        <v>0.7404112878628371</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>371</v>
@@ -11249,19 +11249,19 @@
         <v>379368</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>359729</v>
+        <v>357944</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>401239</v>
+        <v>398274</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7074619800946985</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.670838326060831</v>
+        <v>0.6675087856030513</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7482485853255217</v>
+        <v>0.7427178019229483</v>
       </c>
     </row>
     <row r="37">
@@ -11278,19 +11278,19 @@
         <v>51711</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>39561</v>
+        <v>40519</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>65530</v>
+        <v>65423</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1965261341279818</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1503501290296223</v>
+        <v>0.1539924144498781</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2490456220588916</v>
+        <v>0.2486389520972527</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>59</v>
@@ -11299,19 +11299,19 @@
         <v>63123</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50251</v>
+        <v>48730</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>77774</v>
+        <v>77798</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2311230951571652</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1839928997156783</v>
+        <v>0.1784214860409365</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2847658174545867</v>
+        <v>0.2848545208860709</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -11320,19 +11320,19 @@
         <v>114834</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>96229</v>
+        <v>97478</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>132750</v>
+        <v>134244</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.214146946217595</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1794517293495254</v>
+        <v>0.181780311354256</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2475581655855252</v>
+        <v>0.2503432193276259</v>
       </c>
     </row>
     <row r="38">
@@ -11471,19 +11471,19 @@
         <v>16510</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10132</v>
+        <v>9439</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26147</v>
+        <v>25390</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02523185752029872</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01548398116673612</v>
+        <v>0.01442526631217043</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03996019435553413</v>
+        <v>0.03880313085335535</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>17</v>
@@ -11492,19 +11492,19 @@
         <v>18046</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10313</v>
+        <v>10895</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>26703</v>
+        <v>28396</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02631849173456676</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01504097123079329</v>
+        <v>0.01588937497973441</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03894432172470965</v>
+        <v>0.0414134610737265</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>33</v>
@@ -11513,19 +11513,19 @@
         <v>34556</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>24275</v>
+        <v>24555</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>46575</v>
+        <v>47533</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02578788110615487</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01811592689837543</v>
+        <v>0.01832487022120495</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03475759093750306</v>
+        <v>0.03547230293133027</v>
       </c>
     </row>
     <row r="41">
@@ -11542,19 +11542,19 @@
         <v>119300</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>97397</v>
+        <v>100561</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>141146</v>
+        <v>139648</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1823231133323819</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1488496610478641</v>
+        <v>0.1536845140329234</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2157104390409157</v>
+        <v>0.2134210141833819</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>113</v>
@@ -11563,19 +11563,19 @@
         <v>116867</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>97411</v>
+        <v>99355</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>135825</v>
+        <v>139180</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1704408941788208</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1420660101957624</v>
+        <v>0.144901976345044</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1980901260441482</v>
+        <v>0.2029836835154802</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>216</v>
@@ -11584,19 +11584,19 @@
         <v>236167</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>207426</v>
+        <v>210202</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>262956</v>
+        <v>267433</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1762430598839066</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1547950583074585</v>
+        <v>0.1568662839963782</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1962351482275063</v>
+        <v>0.1995758547353084</v>
       </c>
     </row>
     <row r="42">
@@ -11613,19 +11613,19 @@
         <v>340187</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>311135</v>
+        <v>313992</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>368547</v>
+        <v>365780</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5198989560745015</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.475500020342755</v>
+        <v>0.4798661696784894</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5632409552163878</v>
+        <v>0.559011415542582</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>313</v>
@@ -11634,19 +11634,19 @@
         <v>335452</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>310367</v>
+        <v>307803</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>363177</v>
+        <v>361166</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4892317312955063</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4526463730270641</v>
+        <v>0.4489076371046851</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5296657177940159</v>
+        <v>0.5267328089358868</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>615</v>
@@ -11655,19 +11655,19 @@
         <v>675640</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>637078</v>
+        <v>635889</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>712893</v>
+        <v>712415</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.504206738706434</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4754298975461005</v>
+        <v>0.4745423789108351</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5320080463629735</v>
+        <v>0.5316510429182607</v>
       </c>
     </row>
     <row r="43">
@@ -11684,19 +11684,19 @@
         <v>166076</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>144114</v>
+        <v>143712</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>191364</v>
+        <v>190072</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2538088751720097</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2202458483861885</v>
+        <v>0.2196306542992411</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2924565154187742</v>
+        <v>0.2904815753716068</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>183</v>
@@ -11705,19 +11705,19 @@
         <v>199570</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>174198</v>
+        <v>175916</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>223672</v>
+        <v>221977</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2910576516194684</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2540538925878602</v>
+        <v>0.2565604612847805</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3262083858933244</v>
+        <v>0.3237365147367922</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>329</v>
@@ -11726,19 +11726,19 @@
         <v>365646</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>335652</v>
+        <v>333940</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>403738</v>
+        <v>400668</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2728688292735111</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.25048548482324</v>
+        <v>0.2492077468973276</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3012961493824243</v>
+        <v>0.2990046602121699</v>
       </c>
     </row>
     <row r="44">
@@ -11755,19 +11755,19 @@
         <v>12260</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6564</v>
+        <v>6561</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22228</v>
+        <v>20168</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01873719790080814</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01003150052466985</v>
+        <v>0.01002749970915763</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03397076044553049</v>
+        <v>0.03082260756568007</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -11776,19 +11776,19 @@
         <v>15737</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9266</v>
+        <v>9051</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>26606</v>
+        <v>24962</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0229512311716377</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01351384341495803</v>
+        <v>0.0131997209440391</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03880237732089907</v>
+        <v>0.03640522822559988</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>26</v>
@@ -11797,19 +11797,19 @@
         <v>27997</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>18188</v>
+        <v>18329</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>40151</v>
+        <v>39922</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02089349102999336</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01357324516920761</v>
+        <v>0.01367843096198478</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02996355939612223</v>
+        <v>0.02979222164592795</v>
       </c>
     </row>
     <row r="45">
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8124</v>
+        <v>7986</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002868604358965967</v>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01054136203348577</v>
+        <v>0.01036324566142425</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -11922,19 +11922,19 @@
         <v>5444</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1994</v>
+        <v>1939</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12147</v>
+        <v>12036</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.00662603875107942</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002427078884470742</v>
+        <v>0.002359514416131009</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01478398538307556</v>
+        <v>0.01464993015996786</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -11943,19 +11943,19 @@
         <v>7655</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3348</v>
+        <v>3921</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>15508</v>
+        <v>15856</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004807439880677879</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002102376724170455</v>
+        <v>0.002462302090196617</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0097396606784186</v>
+        <v>0.009957991168127133</v>
       </c>
     </row>
     <row r="47">
@@ -11972,19 +11972,19 @@
         <v>88626</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>72628</v>
+        <v>72213</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>109153</v>
+        <v>107529</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1150011486595337</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09424311908305268</v>
+        <v>0.09370419775478543</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1416382491909334</v>
+        <v>0.1395309370577343</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>68</v>
@@ -11993,19 +11993,19 @@
         <v>79801</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>62926</v>
+        <v>61499</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>100661</v>
+        <v>100806</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0971283435603377</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07658996884356027</v>
+        <v>0.0748528739807429</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1225186086905966</v>
+        <v>0.1226946924166861</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>150</v>
@@ -12014,19 +12014,19 @@
         <v>168426</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>143909</v>
+        <v>142662</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>195221</v>
+        <v>196219</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1057787841994416</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09038087379510872</v>
+        <v>0.08959791842382603</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1226072899994338</v>
+        <v>0.1232335599719903</v>
       </c>
     </row>
     <row r="48">
@@ -12043,19 +12043,19 @@
         <v>366484</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>339865</v>
+        <v>336305</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>394795</v>
+        <v>391805</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4755530364786958</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4410108285789188</v>
+        <v>0.4363922003618375</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5122885181072371</v>
+        <v>0.5084090281618076</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>390</v>
@@ -12064,19 +12064,19 @@
         <v>422921</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>390326</v>
+        <v>393179</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>450931</v>
+        <v>452890</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5147530495872242</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.475079984766648</v>
+        <v>0.4785522177096065</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5488453327327389</v>
+        <v>0.551229088616096</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>741</v>
@@ -12085,19 +12085,19 @@
         <v>789406</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>748922</v>
+        <v>752502</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>830032</v>
+        <v>833813</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4957802367262664</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4703550368104215</v>
+        <v>0.4726030816607157</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5212951121614815</v>
+        <v>0.5236702129277947</v>
       </c>
     </row>
     <row r="49">
@@ -12114,19 +12114,19 @@
         <v>303393</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>274265</v>
+        <v>277719</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>330509</v>
+        <v>328233</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3936846539191547</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3558881037930453</v>
+        <v>0.3603699179339799</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4288707310003673</v>
+        <v>0.4259182326753675</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>276</v>
@@ -12135,19 +12135,19 @@
         <v>300676</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>273265</v>
+        <v>272129</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>328519</v>
+        <v>329713</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3659636725860827</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3326007629281437</v>
+        <v>0.3312186493723321</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3998523479230678</v>
+        <v>0.4013059815679459</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>574</v>
@@ -12156,19 +12156,19 @@
         <v>604068</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>563249</v>
+        <v>564609</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>644715</v>
+        <v>642913</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3793806321594981</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.35374407071467</v>
+        <v>0.3545981376758554</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4049082793834757</v>
+        <v>0.4037766329699555</v>
       </c>
     </row>
     <row r="50">
@@ -12185,19 +12185,19 @@
         <v>9936</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>5009</v>
+        <v>4889</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>17642</v>
+        <v>17918</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01289255658364978</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.00649935179860254</v>
+        <v>0.006343539373267748</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02289264856005686</v>
+        <v>0.02324993085311257</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>12</v>
@@ -12206,19 +12206,19 @@
         <v>12759</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>7052</v>
+        <v>6689</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>22502</v>
+        <v>22130</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01552889551527599</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.008582971740918852</v>
+        <v>0.0081418127418229</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0273879814168059</v>
+        <v>0.02693552992985523</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -12227,19 +12227,19 @@
         <v>22694</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>14943</v>
+        <v>14085</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>34804</v>
+        <v>34535</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01425290703411603</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.009384916944378124</v>
+        <v>0.008846236739332845</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02185808783363256</v>
+        <v>0.02168960156154653</v>
       </c>
     </row>
     <row r="51">
@@ -12331,19 +12331,19 @@
         <v>33860</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>22788</v>
+        <v>23050</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>45799</v>
+        <v>46832</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01002294725909459</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.006745722274736837</v>
+        <v>0.006823093286469246</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01355728059317929</v>
+        <v>0.01386309410696685</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>52</v>
@@ -12352,19 +12352,19 @@
         <v>55929</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>41828</v>
+        <v>43223</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>71904</v>
+        <v>72859</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01583251552551437</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01184074722522613</v>
+        <v>0.01223582093270166</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02035494426230511</v>
+        <v>0.02062524834643535</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>84</v>
@@ -12373,19 +12373,19 @@
         <v>89788</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>70193</v>
+        <v>71632</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>111028</v>
+        <v>112096</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01299258981391257</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01015709972640251</v>
+        <v>0.01036534108166622</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01606603482916434</v>
+        <v>0.01622061423900854</v>
       </c>
     </row>
     <row r="53">
@@ -12402,19 +12402,19 @@
         <v>341781</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>306618</v>
+        <v>304303</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>378993</v>
+        <v>381645</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1011723154359604</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09076337065814877</v>
+        <v>0.09007827315099787</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1121875036411684</v>
+        <v>0.1129725432202197</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>332</v>
@@ -12423,19 +12423,19 @@
         <v>349596</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>314265</v>
+        <v>311751</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>385383</v>
+        <v>388384</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.09896535905745177</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.08896355506572698</v>
+        <v>0.08825180015178452</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.10909595835269</v>
+        <v>0.1099455999641452</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>647</v>
@@ -12444,19 +12444,19 @@
         <v>691377</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>645867</v>
+        <v>633784</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>752613</v>
+        <v>739136</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1000441986331803</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09345877525834977</v>
+        <v>0.09171027034580945</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1089050972702732</v>
+        <v>0.1069549388764774</v>
       </c>
     </row>
     <row r="54">
@@ -12473,19 +12473,19 @@
         <v>1863085</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1805401</v>
+        <v>1805438</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1922187</v>
+        <v>1919448</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.5515009486377626</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5344257132837664</v>
+        <v>0.5344364840802692</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.5689960968356524</v>
+        <v>0.5681852830279215</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1832</v>
@@ -12494,19 +12494,19 @@
         <v>1940557</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1882296</v>
+        <v>1882017</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2005556</v>
+        <v>2001026</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5493419733737094</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5328491774101818</v>
+        <v>0.5327701931628327</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.5677422093381793</v>
+        <v>0.5664596595500389</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3610</v>
@@ -12515,19 +12515,19 @@
         <v>3803642</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3724217</v>
+        <v>3717637</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3893484</v>
+        <v>3891816</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.5503973580566878</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5389043917872753</v>
+        <v>0.5379522028296537</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.5633977834727267</v>
+        <v>0.5631564174147511</v>
       </c>
     </row>
     <row r="55">
@@ -12544,19 +12544,19 @@
         <v>1063912</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1007377</v>
+        <v>1010488</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1118152</v>
+        <v>1120179</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.314933827613973</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2981987602177656</v>
+        <v>0.2991195184705423</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3309895764457623</v>
+        <v>0.3315898232776875</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1035</v>
@@ -12565,19 +12565,19 @@
         <v>1102710</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1044139</v>
+        <v>1051549</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1158497</v>
+        <v>1159297</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3121602817049986</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2955797183011178</v>
+        <v>0.2976773863243635</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3279528615953378</v>
+        <v>0.3281791434216694</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2056</v>
@@ -12586,19 +12586,19 @@
         <v>2166622</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2082757</v>
+        <v>2089208</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2243398</v>
+        <v>2242006</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3135160906012866</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3013806364716675</v>
+        <v>0.3023141048552891</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3246257547169871</v>
+        <v>0.3244243794738133</v>
       </c>
     </row>
     <row r="56">
@@ -12615,19 +12615,19 @@
         <v>75570</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>59086</v>
+        <v>59955</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>96705</v>
+        <v>96568</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02236996105320944</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01749025127929186</v>
+        <v>0.01774759938861817</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02862598438696792</v>
+        <v>0.02858562398381091</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>76</v>
@@ -12636,19 +12636,19 @@
         <v>83720</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>66124</v>
+        <v>67196</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>104846</v>
+        <v>103708</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02369987033832589</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.0187186753700036</v>
+        <v>0.0190220991271188</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02968041727006081</v>
+        <v>0.02935811938227737</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>146</v>
@@ -12657,19 +12657,19 @@
         <v>159290</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>134002</v>
+        <v>135464</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>186133</v>
+        <v>186819</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02304976289493273</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01939046403853841</v>
+        <v>0.01960205950207161</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02693398779261049</v>
+        <v>0.0270331846983979</v>
       </c>
     </row>
     <row r="57">
